--- a/cleaned_animal_disease_prediction.xlsx
+++ b/cleaned_animal_disease_prediction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abbey\Documents\finalyear_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0603FED2-3098-45BF-A137-08BC45840BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F278F5-A7C8-45BE-B690-433C02F7E14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="cleaned_animal_disease_predicti" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cleaned_animal_disease_predicti!$A$1:$W$432</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cleaned_animal_disease_predicti!$A$1:$W$433</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8507" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8611" uniqueCount="404">
   <si>
     <t>species</t>
   </si>
@@ -730,9 +730,6 @@
     <t>Dutch</t>
   </si>
   <si>
-    <t>Upper Respiratory Infection</t>
-  </si>
-  <si>
     <t>Lincoln</t>
   </si>
   <si>
@@ -1096,9 +1093,6 @@
     <t>A motility disorder where the normal movement of the digestive tract slows or stops</t>
   </si>
   <si>
-    <t>Fatal viral disease in rabbits; swollen eyes, skin nodules; vector-borne.</t>
-  </si>
-  <si>
     <t>Bacterial respiratory infection (e.g., “snuffles” in rabbits); pneumonia, abscesses.</t>
   </si>
   <si>
@@ -1156,14 +1150,98 @@
     <t>Give Acaricides (Anti-Mite Medications). Medicated shampoos or lime-sulfur dips. Clean cages</t>
   </si>
   <si>
-    <t>Mange is a skin disease caused by infestation of parasitic mites</t>
+    <t>There is no specific treatment for myxomatosis</t>
+  </si>
+  <si>
+    <t>Fatal viral disease in rabbits; swollen eyes, skin Lesions; spread by insects.</t>
+  </si>
+  <si>
+    <t>Respiratory infection in rabbit is a bacterial infection that affects the respiratory system.</t>
+  </si>
+  <si>
+    <t>Give Antibiotics:Enrofloxacin (Baytril®);Nebulization: Saline or antibiotics to clear airways.</t>
+  </si>
+  <si>
+    <t>Give Antibiotics:NEVER use penicillin(toxic to rabbits);Improve ventilation</t>
+  </si>
+  <si>
+    <t>A contagious respiratory infection in dogs caused by influenza viruses (strains H3N8 and H3N2).</t>
+  </si>
+  <si>
+    <t>A bacterial infection caused by Leptospira spp., transmitted via contact with contaminated water, or urine from infected animals</t>
+  </si>
+  <si>
+    <t>A highly contagious, life-threatening viral disease in dogs (especially puppies)</t>
+  </si>
+  <si>
+    <t>Long-term airway inflammation (dogs, cats, horses); cough, exercise intolerance.</t>
+  </si>
+  <si>
+    <t>Stomach/intestinal inflammation; vomiting, diarrhea (multiple causes).</t>
+  </si>
+  <si>
+    <t>A highly contagious respiratory infection in dogs, characterized by a harsh, hacking cough</t>
+  </si>
+  <si>
+    <t>Tick-borne bacterial infection (dogs, horses); lameness, fever.</t>
+  </si>
+  <si>
+    <t>Pancreatic inflammation (dogs/cats); vomiting, abdominal pain.</t>
+  </si>
+  <si>
+    <t>Includes Lyme, anaplasmosis, babesiosis; fever, lameness.</t>
+  </si>
+  <si>
+    <t>Bacterial respiratory disease in pigs causing severe pneumonia, sudden death.</t>
+  </si>
+  <si>
+    <t>Highly contagious viral disease in pigs; fever, hemorrhage, high mortality.</t>
+  </si>
+  <si>
+    <t>Viral disease in pigs; wasting, respiratory signs.</t>
+  </si>
+  <si>
+    <t>Severe diarrhea in pigs; high mortality in piglets.</t>
+  </si>
+  <si>
+    <t> “Blue ear” disease in pigs; reproductive failure, pneumonia.</t>
+  </si>
+  <si>
+    <t>Bacterial diarrhea in pigs; mucus/blood in feces.</t>
+  </si>
+  <si>
+    <t>Bacterial disease in pigs; diamond-shaped skin lesions, arthritis.</t>
+  </si>
+  <si>
+    <t>Viral hemorrhagic disease in pigs; high fever, mortality.</t>
+  </si>
+  <si>
+    <t>Respiratory virus in pigs; coughing, fever; zoonotic potential.</t>
+  </si>
+  <si>
+    <t>Learn more</t>
+  </si>
+  <si>
+    <t>Swine flu, or H1N1 influenza, is a respiratory disease of pigs caused by type A influenza viruses</t>
+  </si>
+  <si>
+    <t>Swine flu, is a respiratory disease of pigs caused by type A influenza viruses</t>
+  </si>
+  <si>
+    <t>PRDC is a multifactorial syndrome affecting pigs, caused by a combination of pathogens and environmental factors</t>
+  </si>
+  <si>
+    <t>An infectious disease characterized by hemorrhages and embolic lesions at multiple sites, more obviously in the lungs, and often by serous or serofibrinous exudates in the thorax and abdomen.</t>
+  </si>
+  <si>
+    <t>Mange is a skin disease caused by infestation of parasitic mites.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1294,6 +1372,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1640,8 +1725,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2000,14 +2086,14 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:X433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W284" workbookViewId="0">
-      <selection activeCell="W383" sqref="W383"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="X433" sqref="X433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="22" max="22" width="55.85546875" customWidth="1"/>
-    <col min="23" max="23" width="85" customWidth="1"/>
+    <col min="23" max="23" width="70.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -2078,10 +2164,10 @@
         <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="X1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -2152,7 +2238,10 @@
         <v>32</v>
       </c>
       <c r="W2" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="X2" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -2223,7 +2312,7 @@
         <v>41</v>
       </c>
       <c r="W3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -2294,7 +2383,7 @@
         <v>47</v>
       </c>
       <c r="W4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -2365,7 +2454,10 @@
         <v>51</v>
       </c>
       <c r="W5" t="s">
-        <v>339</v>
+        <v>338</v>
+      </c>
+      <c r="X5" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -2436,7 +2528,7 @@
         <v>56</v>
       </c>
       <c r="W6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -2504,10 +2596,10 @@
         <v>85</v>
       </c>
       <c r="V7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -2578,7 +2670,10 @@
         <v>64</v>
       </c>
       <c r="W8" t="s">
-        <v>333</v>
+        <v>332</v>
+      </c>
+      <c r="X8" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -2717,10 +2812,10 @@
         <v>72</v>
       </c>
       <c r="W10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -2791,7 +2886,7 @@
         <v>77</v>
       </c>
       <c r="W11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -2862,7 +2957,7 @@
         <v>79</v>
       </c>
       <c r="W12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -2933,7 +3028,10 @@
         <v>82</v>
       </c>
       <c r="W13" t="s">
-        <v>325</v>
+        <v>324</v>
+      </c>
+      <c r="X13" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -3004,7 +3102,7 @@
         <v>79</v>
       </c>
       <c r="W14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -3075,7 +3173,7 @@
         <v>87</v>
       </c>
       <c r="W15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -3146,7 +3244,7 @@
         <v>90</v>
       </c>
       <c r="W16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -3217,7 +3315,10 @@
         <v>32</v>
       </c>
       <c r="W17" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="X17" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -3288,7 +3389,7 @@
         <v>94</v>
       </c>
       <c r="W18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -3359,7 +3460,10 @@
         <v>96</v>
       </c>
       <c r="W19" t="s">
-        <v>333</v>
+        <v>332</v>
+      </c>
+      <c r="X19" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -3427,10 +3531,10 @@
         <v>85</v>
       </c>
       <c r="V20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -3501,7 +3605,7 @@
         <v>41</v>
       </c>
       <c r="W21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -3572,7 +3676,7 @@
         <v>77</v>
       </c>
       <c r="W22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -3640,10 +3744,10 @@
         <v>90</v>
       </c>
       <c r="V23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -3714,7 +3818,10 @@
         <v>82</v>
       </c>
       <c r="W24" t="s">
-        <v>325</v>
+        <v>324</v>
+      </c>
+      <c r="X24" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -3785,7 +3892,7 @@
         <v>79</v>
       </c>
       <c r="W25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -3856,7 +3963,7 @@
         <v>90</v>
       </c>
       <c r="W26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -3927,7 +4034,7 @@
         <v>104</v>
       </c>
       <c r="X27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -4134,7 +4241,10 @@
         <v>32</v>
       </c>
       <c r="W30" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="X30" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -4273,7 +4383,7 @@
         <v>77</v>
       </c>
       <c r="W32" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -4341,13 +4451,13 @@
         <v>125</v>
       </c>
       <c r="V33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="W33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X33" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -4622,10 +4732,10 @@
         <v>72</v>
       </c>
       <c r="W37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X37" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -4696,7 +4806,7 @@
         <v>114</v>
       </c>
       <c r="W38" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -4835,7 +4945,7 @@
         <v>117</v>
       </c>
       <c r="W40" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -4905,6 +5015,9 @@
       <c r="V41" t="s">
         <v>119</v>
       </c>
+      <c r="X41" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -4974,7 +5087,7 @@
         <v>41</v>
       </c>
       <c r="W42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -5045,7 +5158,10 @@
         <v>32</v>
       </c>
       <c r="W43" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="X43" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -5116,7 +5232,7 @@
         <v>41</v>
       </c>
       <c r="W44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -5187,7 +5303,7 @@
         <v>123</v>
       </c>
       <c r="W45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -5258,7 +5374,7 @@
         <v>90</v>
       </c>
       <c r="W46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -5329,7 +5445,10 @@
         <v>51</v>
       </c>
       <c r="W47" t="s">
-        <v>339</v>
+        <v>338</v>
+      </c>
+      <c r="X47" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="48" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -5604,7 +5723,10 @@
         <v>82</v>
       </c>
       <c r="W51" t="s">
-        <v>325</v>
+        <v>324</v>
+      </c>
+      <c r="X51" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -5743,7 +5865,7 @@
         <v>130</v>
       </c>
       <c r="W53" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -5814,7 +5936,7 @@
         <v>77</v>
       </c>
       <c r="W54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -5885,7 +6007,10 @@
         <v>32</v>
       </c>
       <c r="W55" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="X55" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -6024,7 +6149,7 @@
         <v>156</v>
       </c>
       <c r="W57" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -6163,7 +6288,10 @@
         <v>82</v>
       </c>
       <c r="W59" t="s">
-        <v>325</v>
+        <v>324</v>
+      </c>
+      <c r="X59" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -6302,7 +6430,7 @@
         <v>142</v>
       </c>
       <c r="W61" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -6441,7 +6569,7 @@
         <v>145</v>
       </c>
       <c r="X63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="64" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -6512,7 +6640,7 @@
         <v>51</v>
       </c>
       <c r="W64" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -6651,7 +6779,7 @@
         <v>149</v>
       </c>
       <c r="W66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -6722,7 +6850,10 @@
         <v>51</v>
       </c>
       <c r="W67" t="s">
-        <v>339</v>
+        <v>338</v>
+      </c>
+      <c r="X67" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -6858,10 +6989,10 @@
         <v>72</v>
       </c>
       <c r="V69" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W69" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -7000,10 +7131,10 @@
         <v>72</v>
       </c>
       <c r="W71" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X71" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -7142,7 +7273,10 @@
         <v>82</v>
       </c>
       <c r="W73" t="s">
-        <v>325</v>
+        <v>324</v>
+      </c>
+      <c r="X73" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -7281,7 +7415,7 @@
         <v>156</v>
       </c>
       <c r="W75" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="76" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -7352,7 +7486,7 @@
         <v>157</v>
       </c>
       <c r="W76" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="77" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -7423,7 +7557,10 @@
         <v>51</v>
       </c>
       <c r="W77" t="s">
-        <v>339</v>
+        <v>338</v>
+      </c>
+      <c r="X77" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="78" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -7494,7 +7631,7 @@
         <v>79</v>
       </c>
       <c r="W78" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -7562,10 +7699,10 @@
         <v>78</v>
       </c>
       <c r="V79" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W79" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -7636,7 +7773,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -7704,10 +7841,13 @@
         <v>32</v>
       </c>
       <c r="W81" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="X81" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -7775,7 +7915,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>57</v>
       </c>
@@ -7843,10 +7983,10 @@
         <v>123</v>
       </c>
       <c r="W83" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>42</v>
       </c>
@@ -7914,10 +8054,10 @@
         <v>117</v>
       </c>
       <c r="W84" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>22</v>
       </c>
@@ -7984,8 +8124,11 @@
       <c r="V85" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X85" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -8053,7 +8196,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>57</v>
       </c>
@@ -8121,7 +8264,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>42</v>
       </c>
@@ -8189,7 +8332,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -8257,10 +8400,13 @@
         <v>51</v>
       </c>
       <c r="W89" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="X89" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>33</v>
       </c>
@@ -8328,7 +8474,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>57</v>
       </c>
@@ -8396,7 +8542,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>42</v>
       </c>
@@ -8464,10 +8610,10 @@
         <v>172</v>
       </c>
       <c r="W92" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -8534,8 +8680,11 @@
       <c r="V93" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X93" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -8603,7 +8752,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>57</v>
       </c>
@@ -8671,10 +8820,10 @@
         <v>123</v>
       </c>
       <c r="W95" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>42</v>
       </c>
@@ -8742,7 +8891,7 @@
         <v>149</v>
       </c>
       <c r="W96" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -8813,7 +8962,7 @@
         <v>179</v>
       </c>
       <c r="X97" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="98" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -8884,7 +9033,7 @@
         <v>41</v>
       </c>
       <c r="W98" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="99" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -9091,7 +9240,10 @@
         <v>51</v>
       </c>
       <c r="W101" t="s">
-        <v>339</v>
+        <v>338</v>
+      </c>
+      <c r="X101" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="102" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -9230,7 +9382,10 @@
         <v>51</v>
       </c>
       <c r="W103" t="s">
-        <v>339</v>
+        <v>338</v>
+      </c>
+      <c r="X103" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="104" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -9301,7 +9456,7 @@
         <v>41</v>
       </c>
       <c r="W104" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="105" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -9372,7 +9527,7 @@
         <v>123</v>
       </c>
       <c r="W105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="106" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -9443,7 +9598,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>183</v>
       </c>
@@ -9510,8 +9665,11 @@
       <c r="V107" t="s">
         <v>185</v>
       </c>
+      <c r="W107" t="s">
+        <v>379</v>
+      </c>
       <c r="X107" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="108" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -9650,7 +9808,7 @@
         <v>191</v>
       </c>
       <c r="W109" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="110" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -9721,7 +9879,10 @@
         <v>194</v>
       </c>
       <c r="W110" t="s">
-        <v>341</v>
+        <v>340</v>
+      </c>
+      <c r="X110" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="111" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -9792,7 +9953,10 @@
         <v>32</v>
       </c>
       <c r="W111" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="X111" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="112" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -9931,7 +10095,7 @@
         <v>156</v>
       </c>
       <c r="W113" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="114" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -10002,10 +10166,10 @@
         <v>90</v>
       </c>
       <c r="W114" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>183</v>
       </c>
@@ -10073,7 +10237,7 @@
         <v>196</v>
       </c>
       <c r="X115" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="116" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -10141,10 +10305,10 @@
         <v>77</v>
       </c>
       <c r="V116" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W116" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="117" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -10282,6 +10446,9 @@
       <c r="V118" t="s">
         <v>202</v>
       </c>
+      <c r="X118" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="119" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -10350,6 +10517,9 @@
       <c r="V119" t="s">
         <v>129</v>
       </c>
+      <c r="X119" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="120" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -10555,7 +10725,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>183</v>
       </c>
@@ -10623,7 +10793,7 @@
         <v>208</v>
       </c>
       <c r="X123" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="124" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -10762,7 +10932,7 @@
         <v>212</v>
       </c>
       <c r="W125" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="126" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -10833,7 +11003,10 @@
         <v>32</v>
       </c>
       <c r="W126" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="X126" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="127" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -10972,7 +11145,7 @@
         <v>215</v>
       </c>
       <c r="W128" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="129" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -11043,10 +11216,10 @@
         <v>172</v>
       </c>
       <c r="W129" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>183</v>
       </c>
@@ -11114,10 +11287,10 @@
         <v>217</v>
       </c>
       <c r="W130" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="X130" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="131" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -11188,7 +11361,7 @@
         <v>47</v>
       </c>
       <c r="W131" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="132" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -11259,7 +11432,7 @@
         <v>191</v>
       </c>
       <c r="W132" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="133" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -11330,7 +11503,10 @@
         <v>222</v>
       </c>
       <c r="W133" t="s">
-        <v>324</v>
+        <v>323</v>
+      </c>
+      <c r="X133" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="134" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -11401,7 +11577,7 @@
         <v>179</v>
       </c>
       <c r="X134" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="135" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -11608,10 +11784,10 @@
         <v>90</v>
       </c>
       <c r="W137" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>183</v>
       </c>
@@ -11677,6 +11853,12 @@
       </c>
       <c r="V138" t="s">
         <v>226</v>
+      </c>
+      <c r="W138" t="s">
+        <v>378</v>
+      </c>
+      <c r="X138" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="139" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -11744,10 +11926,10 @@
         <v>76</v>
       </c>
       <c r="V139" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W139" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="140" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -11886,7 +12068,10 @@
         <v>231</v>
       </c>
       <c r="W141" t="s">
-        <v>328</v>
+        <v>327</v>
+      </c>
+      <c r="X141" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="142" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -11957,7 +12142,10 @@
         <v>82</v>
       </c>
       <c r="W142" t="s">
-        <v>325</v>
+        <v>324</v>
+      </c>
+      <c r="X142" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="143" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -12164,10 +12352,10 @@
         <v>172</v>
       </c>
       <c r="W145" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>183</v>
       </c>
@@ -12232,10 +12420,13 @@
         <v>155</v>
       </c>
       <c r="V146" t="s">
-        <v>235</v>
+        <v>185</v>
+      </c>
+      <c r="W146" t="s">
+        <v>379</v>
       </c>
       <c r="X146" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="147" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -12243,7 +12434,7 @@
         <v>186</v>
       </c>
       <c r="B147" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C147">
         <v>8</v>
@@ -12303,7 +12494,7 @@
         <v>75</v>
       </c>
       <c r="V147" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="148" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -12311,7 +12502,7 @@
         <v>189</v>
       </c>
       <c r="B148" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C148">
         <v>5</v>
@@ -12371,7 +12562,7 @@
         <v>82</v>
       </c>
       <c r="V148" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="149" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -12379,7 +12570,7 @@
         <v>192</v>
       </c>
       <c r="B149" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C149">
         <v>3</v>
@@ -12442,7 +12633,10 @@
         <v>222</v>
       </c>
       <c r="W149" t="s">
-        <v>324</v>
+        <v>323</v>
+      </c>
+      <c r="X149" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="150" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -12513,7 +12707,10 @@
         <v>32</v>
       </c>
       <c r="W150" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="X150" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="151" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -12649,7 +12846,7 @@
         <v>77</v>
       </c>
       <c r="V152" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="153" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -12720,7 +12917,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>183</v>
       </c>
@@ -12788,7 +12985,7 @@
         <v>210</v>
       </c>
       <c r="X154" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="155" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -12859,7 +13056,10 @@
         <v>32</v>
       </c>
       <c r="W155" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="X155" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="156" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -12953,7 +13153,7 @@
         <v>121</v>
       </c>
       <c r="H157" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I157" t="s">
         <v>25</v>
@@ -12995,10 +13195,10 @@
         <v>75</v>
       </c>
       <c r="V157" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W157" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="158" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -13069,10 +13269,10 @@
         <v>90</v>
       </c>
       <c r="W158" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>183</v>
       </c>
@@ -13140,10 +13340,10 @@
         <v>217</v>
       </c>
       <c r="W159" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="X159" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="160" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -13151,7 +13351,7 @@
         <v>186</v>
       </c>
       <c r="B160" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C160">
         <v>4</v>
@@ -13211,10 +13411,10 @@
         <v>76</v>
       </c>
       <c r="V160" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W160" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="161" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -13352,13 +13552,16 @@
       <c r="V162" t="s">
         <v>202</v>
       </c>
+      <c r="X162" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="163" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>22</v>
       </c>
       <c r="B163" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C163">
         <v>6</v>
@@ -13421,10 +13624,10 @@
         <v>72</v>
       </c>
       <c r="W163" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X163" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="164" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -13500,7 +13703,7 @@
         <v>57</v>
       </c>
       <c r="B165" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C165">
         <v>9</v>
@@ -13521,7 +13724,7 @@
         <v>121</v>
       </c>
       <c r="I165" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J165" t="s">
         <v>62</v>
@@ -13568,7 +13771,7 @@
         <v>42</v>
       </c>
       <c r="B166" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C166">
         <v>5</v>
@@ -13631,15 +13834,15 @@
         <v>172</v>
       </c>
       <c r="W166" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>183</v>
       </c>
       <c r="B167" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -13699,10 +13902,13 @@
         <v>155</v>
       </c>
       <c r="V167" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="W167" t="s">
+        <v>375</v>
       </c>
       <c r="X167" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
     </row>
     <row r="168" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -13770,7 +13976,7 @@
         <v>78</v>
       </c>
       <c r="V168" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="169" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -13838,7 +14044,7 @@
         <v>80</v>
       </c>
       <c r="V169" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="170" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -13846,7 +14052,7 @@
         <v>192</v>
       </c>
       <c r="B170" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C170">
         <v>5</v>
@@ -13909,7 +14115,10 @@
         <v>222</v>
       </c>
       <c r="W170" t="s">
-        <v>324</v>
+        <v>323</v>
+      </c>
+      <c r="X170" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="171" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -13917,7 +14126,7 @@
         <v>22</v>
       </c>
       <c r="B171" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C171">
         <v>4</v>
@@ -13977,7 +14186,10 @@
         <v>125</v>
       </c>
       <c r="V171" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="X171" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="172" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -14053,7 +14265,7 @@
         <v>57</v>
       </c>
       <c r="B173" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C173">
         <v>12</v>
@@ -14071,7 +14283,7 @@
         <v>27</v>
       </c>
       <c r="H173" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I173" t="s">
         <v>25</v>
@@ -14116,7 +14328,7 @@
         <v>156</v>
       </c>
       <c r="W173" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="174" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -14187,7 +14399,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>183</v>
       </c>
@@ -14252,10 +14464,10 @@
         <v>160</v>
       </c>
       <c r="V175" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X175" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="176" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -14263,7 +14475,7 @@
         <v>186</v>
       </c>
       <c r="B176" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C176">
         <v>5</v>
@@ -14323,7 +14535,7 @@
         <v>74</v>
       </c>
       <c r="V176" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="177" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -14399,7 +14611,7 @@
         <v>192</v>
       </c>
       <c r="B178" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C178">
         <v>3</v>
@@ -14459,10 +14671,13 @@
         <v>84</v>
       </c>
       <c r="V178" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W178" t="s">
-        <v>348</v>
+        <v>347</v>
+      </c>
+      <c r="X178" s="1" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="179" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -14470,7 +14685,7 @@
         <v>22</v>
       </c>
       <c r="B179" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C179">
         <v>5</v>
@@ -14530,7 +14745,10 @@
         <v>123</v>
       </c>
       <c r="V179" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="X179" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="180" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -14598,7 +14816,7 @@
         <v>147</v>
       </c>
       <c r="V180" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="181" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -14624,7 +14842,7 @@
         <v>121</v>
       </c>
       <c r="H181" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I181" t="s">
         <v>13</v>
@@ -14666,10 +14884,10 @@
         <v>79</v>
       </c>
       <c r="V181" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W181" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="182" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -14740,7 +14958,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -14805,10 +15023,13 @@
         <v>153</v>
       </c>
       <c r="V183" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="W183" t="s">
+        <v>375</v>
       </c>
       <c r="X183" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
     </row>
     <row r="184" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -14879,7 +15100,10 @@
         <v>32</v>
       </c>
       <c r="W184" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="X184" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="185" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -15086,12 +15310,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>183</v>
       </c>
       <c r="B188" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C188">
         <v>2</v>
@@ -15151,10 +15375,10 @@
         <v>155</v>
       </c>
       <c r="V188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X188" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="189" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -15162,7 +15386,7 @@
         <v>186</v>
       </c>
       <c r="B189" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C189">
         <v>4</v>
@@ -15222,10 +15446,10 @@
         <v>75</v>
       </c>
       <c r="V189" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W189" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="190" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -15233,7 +15457,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C190">
         <v>5</v>
@@ -15293,7 +15517,7 @@
         <v>80</v>
       </c>
       <c r="V190" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="191" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -15364,7 +15588,10 @@
         <v>194</v>
       </c>
       <c r="W191" t="s">
-        <v>341</v>
+        <v>340</v>
+      </c>
+      <c r="X191" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="192" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -15435,10 +15662,10 @@
         <v>72</v>
       </c>
       <c r="W192" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X192" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="193" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -15532,7 +15759,7 @@
         <v>121</v>
       </c>
       <c r="H194" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I194" t="s">
         <v>25</v>
@@ -15574,7 +15801,7 @@
         <v>76</v>
       </c>
       <c r="V194" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="195" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -15603,7 +15830,7 @@
         <v>121</v>
       </c>
       <c r="I195" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J195" t="s">
         <v>70</v>
@@ -15645,10 +15872,10 @@
         <v>172</v>
       </c>
       <c r="W195" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>183</v>
       </c>
@@ -15713,10 +15940,13 @@
         <v>160</v>
       </c>
       <c r="V196" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="W196" t="s">
+        <v>375</v>
       </c>
       <c r="X196" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
     </row>
     <row r="197" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -15724,7 +15954,7 @@
         <v>186</v>
       </c>
       <c r="B197" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C197">
         <v>6</v>
@@ -15784,7 +16014,7 @@
         <v>74</v>
       </c>
       <c r="V197" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="198" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -15792,7 +16022,7 @@
         <v>189</v>
       </c>
       <c r="B198" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C198">
         <v>2</v>
@@ -15860,7 +16090,7 @@
         <v>192</v>
       </c>
       <c r="B199" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C199">
         <v>6</v>
@@ -15921,6 +16151,9 @@
       </c>
       <c r="V199" t="s">
         <v>202</v>
+      </c>
+      <c r="X199" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="200" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -15988,7 +16221,10 @@
         <v>118</v>
       </c>
       <c r="V200" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="X200" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="201" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -16082,7 +16318,7 @@
         <v>121</v>
       </c>
       <c r="H202" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I202" t="s">
         <v>25</v>
@@ -16124,10 +16360,10 @@
         <v>78</v>
       </c>
       <c r="V202" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W202" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="203" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -16135,7 +16371,7 @@
         <v>42</v>
       </c>
       <c r="B203" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C203">
         <v>6</v>
@@ -16198,10 +16434,10 @@
         <v>90</v>
       </c>
       <c r="W203" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>183</v>
       </c>
@@ -16269,10 +16505,10 @@
         <v>217</v>
       </c>
       <c r="W204" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="X204" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="205" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -16280,7 +16516,7 @@
         <v>186</v>
       </c>
       <c r="B205" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C205">
         <v>3</v>
@@ -16343,7 +16579,7 @@
         <v>47</v>
       </c>
       <c r="W205" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="206" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -16411,7 +16647,7 @@
         <v>81</v>
       </c>
       <c r="V206" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="207" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -16479,10 +16715,13 @@
         <v>88</v>
       </c>
       <c r="V207" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="W207" t="s">
-        <v>321</v>
+        <v>320</v>
+      </c>
+      <c r="X207" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="208" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -16553,7 +16792,10 @@
         <v>82</v>
       </c>
       <c r="W208" t="s">
-        <v>325</v>
+        <v>324</v>
+      </c>
+      <c r="X208" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="209" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -16647,7 +16889,7 @@
         <v>121</v>
       </c>
       <c r="H210" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I210" t="s">
         <v>25</v>
@@ -16689,7 +16931,7 @@
         <v>77</v>
       </c>
       <c r="V210" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="211" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -16697,7 +16939,7 @@
         <v>42</v>
       </c>
       <c r="B211" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C211">
         <v>4</v>
@@ -16718,7 +16960,7 @@
         <v>121</v>
       </c>
       <c r="I211" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J211" t="s">
         <v>70</v>
@@ -16760,7 +17002,7 @@
         <v>172</v>
       </c>
       <c r="W211" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="212" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -16828,10 +17070,10 @@
         <v>125</v>
       </c>
       <c r="V212" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X212" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="213" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -16925,7 +17167,7 @@
         <v>121</v>
       </c>
       <c r="H214" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I214" t="s">
         <v>25</v>
@@ -16967,7 +17209,7 @@
         <v>85</v>
       </c>
       <c r="V214" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="215" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -17038,10 +17280,10 @@
         <v>172</v>
       </c>
       <c r="W215" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="216" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>183</v>
       </c>
@@ -17109,10 +17351,10 @@
         <v>217</v>
       </c>
       <c r="W216" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="X216" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="217" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -17183,7 +17425,7 @@
         <v>47</v>
       </c>
       <c r="W217" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="218" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -17319,7 +17561,10 @@
         <v>83</v>
       </c>
       <c r="V219" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+      <c r="X219" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="220" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -17390,7 +17635,10 @@
         <v>32</v>
       </c>
       <c r="W220" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="X220" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="221" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -17466,7 +17714,7 @@
         <v>57</v>
       </c>
       <c r="B222" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C222">
         <v>8</v>
@@ -17484,7 +17732,7 @@
         <v>121</v>
       </c>
       <c r="H222" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I222" t="s">
         <v>25</v>
@@ -17526,10 +17774,10 @@
         <v>87</v>
       </c>
       <c r="V222" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W222" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="223" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -17600,12 +17848,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>183</v>
       </c>
       <c r="B224" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -17665,10 +17913,13 @@
         <v>158</v>
       </c>
       <c r="V224" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="W224" t="s">
+        <v>375</v>
       </c>
       <c r="X224" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
     </row>
     <row r="225" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -17676,7 +17927,7 @@
         <v>186</v>
       </c>
       <c r="B225" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C225">
         <v>5</v>
@@ -17736,10 +17987,10 @@
         <v>75</v>
       </c>
       <c r="V225" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W225" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="226" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -17747,7 +17998,7 @@
         <v>189</v>
       </c>
       <c r="B226" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C226">
         <v>6</v>
@@ -17807,7 +18058,7 @@
         <v>83</v>
       </c>
       <c r="V226" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="227" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -17815,7 +18066,7 @@
         <v>192</v>
       </c>
       <c r="B227" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C227">
         <v>4</v>
@@ -17878,7 +18129,10 @@
         <v>194</v>
       </c>
       <c r="W227" t="s">
-        <v>341</v>
+        <v>340</v>
+      </c>
+      <c r="X227" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="228" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -17949,10 +18203,10 @@
         <v>72</v>
       </c>
       <c r="W228" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X228" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="229" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -18028,7 +18282,7 @@
         <v>57</v>
       </c>
       <c r="B230" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C230">
         <v>6</v>
@@ -18043,7 +18297,7 @@
         <v>15</v>
       </c>
       <c r="G230" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H230" t="s">
         <v>121</v>
@@ -18096,7 +18350,7 @@
         <v>42</v>
       </c>
       <c r="B231" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C231">
         <v>3</v>
@@ -18159,7 +18413,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>183</v>
       </c>
@@ -18224,10 +18478,10 @@
         <v>153</v>
       </c>
       <c r="V232" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X232" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="233" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -18235,7 +18489,7 @@
         <v>186</v>
       </c>
       <c r="B233" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C233">
         <v>4</v>
@@ -18295,10 +18549,10 @@
         <v>76</v>
       </c>
       <c r="V233" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W233" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="234" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -18366,7 +18620,7 @@
         <v>80</v>
       </c>
       <c r="V234" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="235" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -18374,7 +18628,7 @@
         <v>192</v>
       </c>
       <c r="B235" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C235">
         <v>3</v>
@@ -18434,7 +18688,7 @@
         <v>86</v>
       </c>
       <c r="V235" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="236" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -18505,10 +18759,10 @@
         <v>72</v>
       </c>
       <c r="W236" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X236" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="237" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -18576,7 +18830,7 @@
         <v>148</v>
       </c>
       <c r="V237" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="238" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -18599,7 +18853,7 @@
         <v>15</v>
       </c>
       <c r="G238" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H238" t="s">
         <v>121</v>
@@ -18644,10 +18898,10 @@
         <v>80</v>
       </c>
       <c r="V238" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W238" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="239" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -18655,7 +18909,7 @@
         <v>42</v>
       </c>
       <c r="B239" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C239">
         <v>3</v>
@@ -18718,7 +18972,7 @@
         <v>172</v>
       </c>
       <c r="W239" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="240" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -18789,7 +19043,10 @@
         <v>32</v>
       </c>
       <c r="W240" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="X240" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="241" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -18860,7 +19117,7 @@
         <v>41</v>
       </c>
       <c r="W241" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="242" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -18883,7 +19140,7 @@
         <v>15</v>
       </c>
       <c r="G242" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H242" t="s">
         <v>121</v>
@@ -18928,7 +19185,7 @@
         <v>82</v>
       </c>
       <c r="V242" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="243" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -18999,10 +19256,10 @@
         <v>90</v>
       </c>
       <c r="W243" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="244" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>183</v>
       </c>
@@ -19070,10 +19327,10 @@
         <v>217</v>
       </c>
       <c r="W244" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="X244" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="245" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -19081,7 +19338,7 @@
         <v>186</v>
       </c>
       <c r="B245" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C245">
         <v>6</v>
@@ -19141,10 +19398,10 @@
         <v>74</v>
       </c>
       <c r="V245" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W245" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="246" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -19282,6 +19539,9 @@
       <c r="V247" t="s">
         <v>202</v>
       </c>
+      <c r="X247" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="248" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
@@ -19351,7 +19611,7 @@
         <v>179</v>
       </c>
       <c r="X248" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="249" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -19427,7 +19687,7 @@
         <v>57</v>
       </c>
       <c r="B250" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C250">
         <v>8</v>
@@ -19442,7 +19702,7 @@
         <v>15</v>
       </c>
       <c r="G250" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H250" t="s">
         <v>121</v>
@@ -19487,7 +19747,7 @@
         <v>88</v>
       </c>
       <c r="V250" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="251" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -19555,10 +19815,10 @@
         <v>78</v>
       </c>
       <c r="V251" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="252" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>183</v>
       </c>
@@ -19626,7 +19886,7 @@
         <v>210</v>
       </c>
       <c r="X252" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="253" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -19634,7 +19894,7 @@
         <v>186</v>
       </c>
       <c r="B253" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C253">
         <v>4</v>
@@ -19694,10 +19954,10 @@
         <v>76</v>
       </c>
       <c r="V253" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W253" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="254" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -19765,7 +20025,7 @@
         <v>82</v>
       </c>
       <c r="V254" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="255" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -19773,7 +20033,7 @@
         <v>192</v>
       </c>
       <c r="B255" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C255">
         <v>4</v>
@@ -19836,7 +20096,10 @@
         <v>222</v>
       </c>
       <c r="W255" t="s">
-        <v>324</v>
+        <v>323</v>
+      </c>
+      <c r="X255" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="256" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -19904,7 +20167,10 @@
         <v>125</v>
       </c>
       <c r="V256" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="X256" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="257" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -19972,7 +20238,7 @@
         <v>145</v>
       </c>
       <c r="V257" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="258" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -19995,7 +20261,7 @@
         <v>15</v>
       </c>
       <c r="G258" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H258" t="s">
         <v>121</v>
@@ -20040,10 +20306,10 @@
         <v>84</v>
       </c>
       <c r="V258" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W258" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="259" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -20051,7 +20317,7 @@
         <v>42</v>
       </c>
       <c r="B259" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C259">
         <v>4</v>
@@ -20114,10 +20380,10 @@
         <v>172</v>
       </c>
       <c r="W259" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="260" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>183</v>
       </c>
@@ -20182,10 +20448,10 @@
         <v>150</v>
       </c>
       <c r="V260" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X260" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="261" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -20253,7 +20519,7 @@
         <v>75</v>
       </c>
       <c r="V261" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="262" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -20321,7 +20587,7 @@
         <v>80</v>
       </c>
       <c r="V262" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="263" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -20329,7 +20595,7 @@
         <v>192</v>
       </c>
       <c r="B263" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C263">
         <v>4</v>
@@ -20389,7 +20655,10 @@
         <v>88</v>
       </c>
       <c r="V263" t="s">
-        <v>297</v>
+        <v>296</v>
+      </c>
+      <c r="X263" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="264" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -20460,7 +20729,10 @@
         <v>82</v>
       </c>
       <c r="W264" t="s">
-        <v>325</v>
+        <v>324</v>
+      </c>
+      <c r="X264" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="265" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -20554,7 +20826,7 @@
         <v>121</v>
       </c>
       <c r="H266" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I266" t="s">
         <v>25</v>
@@ -20667,12 +20939,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>183</v>
       </c>
       <c r="B268" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C268">
         <v>3</v>
@@ -20732,10 +21004,13 @@
         <v>155</v>
       </c>
       <c r="V268" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="W268" t="s">
+        <v>375</v>
       </c>
       <c r="X268" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
     </row>
     <row r="269" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -20743,7 +21018,7 @@
         <v>186</v>
       </c>
       <c r="B269" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C269">
         <v>4</v>
@@ -20803,10 +21078,10 @@
         <v>77</v>
       </c>
       <c r="V269" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W269" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="270" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -20814,7 +21089,7 @@
         <v>189</v>
       </c>
       <c r="B270" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C270">
         <v>5</v>
@@ -20882,7 +21157,7 @@
         <v>192</v>
       </c>
       <c r="B271" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C271">
         <v>6</v>
@@ -20945,7 +21220,10 @@
         <v>222</v>
       </c>
       <c r="W271" t="s">
-        <v>324</v>
+        <v>323</v>
+      </c>
+      <c r="X271" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="272" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -21016,7 +21294,10 @@
         <v>32</v>
       </c>
       <c r="W272" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="X272" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="273" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -21084,7 +21365,7 @@
         <v>135</v>
       </c>
       <c r="V273" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="274" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -21107,7 +21388,7 @@
         <v>15</v>
       </c>
       <c r="G274" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H274" t="s">
         <v>121</v>
@@ -21160,7 +21441,7 @@
         <v>42</v>
       </c>
       <c r="B275" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C275">
         <v>5</v>
@@ -21223,10 +21504,10 @@
         <v>172</v>
       </c>
       <c r="W275" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="276" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>183</v>
       </c>
@@ -21294,7 +21575,7 @@
         <v>210</v>
       </c>
       <c r="X276" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="277" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -21362,7 +21643,7 @@
         <v>78</v>
       </c>
       <c r="V277" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="278" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -21501,7 +21782,10 @@
         <v>231</v>
       </c>
       <c r="W279" t="s">
-        <v>328</v>
+        <v>327</v>
+      </c>
+      <c r="X279" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="280" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -21569,7 +21853,10 @@
         <v>115</v>
       </c>
       <c r="V280" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="X280" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="281" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -21663,7 +21950,7 @@
         <v>121</v>
       </c>
       <c r="H282" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I282" t="s">
         <v>25</v>
@@ -21705,7 +21992,7 @@
         <v>80</v>
       </c>
       <c r="V282" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="283" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -21713,7 +22000,7 @@
         <v>42</v>
       </c>
       <c r="B283" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C283">
         <v>4</v>
@@ -21776,10 +22063,10 @@
         <v>172</v>
       </c>
       <c r="W283" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="284" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>183</v>
       </c>
@@ -21847,10 +22134,10 @@
         <v>217</v>
       </c>
       <c r="W284" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="X284" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="285" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -21921,7 +22208,7 @@
         <v>47</v>
       </c>
       <c r="W285" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="286" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -21929,7 +22216,7 @@
         <v>189</v>
       </c>
       <c r="B286" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C286">
         <v>4</v>
@@ -21997,7 +22284,7 @@
         <v>192</v>
       </c>
       <c r="B287" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C287">
         <v>5</v>
@@ -22057,7 +22344,10 @@
         <v>90</v>
       </c>
       <c r="V287" t="s">
-        <v>302</v>
+        <v>301</v>
+      </c>
+      <c r="X287" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="288" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -22065,7 +22355,7 @@
         <v>22</v>
       </c>
       <c r="B288" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C288">
         <v>4</v>
@@ -22125,13 +22415,13 @@
         <v>100</v>
       </c>
       <c r="V288" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="W288" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X288" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
     </row>
     <row r="289" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -22201,6 +22491,9 @@
       <c r="V289" t="s">
         <v>110</v>
       </c>
+      <c r="X289" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="290" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
@@ -22225,7 +22518,7 @@
         <v>121</v>
       </c>
       <c r="H290" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I290" t="s">
         <v>25</v>
@@ -22267,10 +22560,10 @@
         <v>78</v>
       </c>
       <c r="V290" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W290" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="291" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -22341,7 +22634,10 @@
         <v>82</v>
       </c>
       <c r="W291" t="s">
-        <v>325</v>
+        <v>324</v>
+      </c>
+      <c r="X291" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="292" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -22432,7 +22728,7 @@
         <v>15</v>
       </c>
       <c r="G293" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H293" t="s">
         <v>121</v>
@@ -22477,7 +22773,7 @@
         <v>90</v>
       </c>
       <c r="V293" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="294" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -22548,10 +22844,10 @@
         <v>90</v>
       </c>
       <c r="W294" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="295" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>183</v>
       </c>
@@ -22619,10 +22915,10 @@
         <v>217</v>
       </c>
       <c r="W295" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="X295" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="296" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -22630,7 +22926,7 @@
         <v>186</v>
       </c>
       <c r="B296" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C296">
         <v>5</v>
@@ -22690,10 +22986,10 @@
         <v>78</v>
       </c>
       <c r="V296" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W296" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="297" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -22829,7 +23125,10 @@
         <v>100</v>
       </c>
       <c r="V298" t="s">
-        <v>306</v>
+        <v>305</v>
+      </c>
+      <c r="X298" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="299" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -22900,7 +23199,10 @@
         <v>32</v>
       </c>
       <c r="W299" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="X299" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="300" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -22971,7 +23273,7 @@
         <v>79</v>
       </c>
       <c r="W300" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="301" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -22994,7 +23296,7 @@
         <v>15</v>
       </c>
       <c r="G301" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H301" t="s">
         <v>121</v>
@@ -23039,7 +23341,7 @@
         <v>85</v>
       </c>
       <c r="V301" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="302" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -23110,7 +23412,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>183</v>
       </c>
@@ -23178,10 +23480,10 @@
         <v>94</v>
       </c>
       <c r="W303" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X303" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="304" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -23249,10 +23551,10 @@
         <v>77</v>
       </c>
       <c r="V304" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W304" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="305" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -23323,7 +23625,7 @@
         <v>47</v>
       </c>
       <c r="W305" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="306" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -23394,7 +23696,10 @@
         <v>222</v>
       </c>
       <c r="W306" t="s">
-        <v>324</v>
+        <v>323</v>
+      </c>
+      <c r="X306" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="307" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -23465,10 +23770,10 @@
         <v>72</v>
       </c>
       <c r="W307" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X307" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="308" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -23544,7 +23849,7 @@
         <v>57</v>
       </c>
       <c r="B309" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C309">
         <v>6</v>
@@ -23562,7 +23867,7 @@
         <v>121</v>
       </c>
       <c r="H309" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I309" t="s">
         <v>25</v>
@@ -23604,10 +23909,10 @@
         <v>88</v>
       </c>
       <c r="V309" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W309" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="310" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -23615,7 +23920,7 @@
         <v>42</v>
       </c>
       <c r="B310" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C310">
         <v>7</v>
@@ -23678,7 +23983,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>183</v>
       </c>
@@ -23746,7 +24051,7 @@
         <v>188</v>
       </c>
       <c r="X311" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="312" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -23814,10 +24119,10 @@
         <v>78</v>
       </c>
       <c r="V312" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W312" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="313" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -23825,7 +24130,7 @@
         <v>189</v>
       </c>
       <c r="B313" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C313">
         <v>8</v>
@@ -23893,7 +24198,7 @@
         <v>192</v>
       </c>
       <c r="B314" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C314">
         <v>6</v>
@@ -23954,6 +24259,9 @@
       </c>
       <c r="V314" t="s">
         <v>202</v>
+      </c>
+      <c r="X314" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="315" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -24024,7 +24332,10 @@
         <v>32</v>
       </c>
       <c r="W315" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="X315" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="316" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -24092,7 +24403,7 @@
         <v>140</v>
       </c>
       <c r="V316" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="317" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -24118,7 +24429,7 @@
         <v>121</v>
       </c>
       <c r="H317" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I317" t="s">
         <v>25</v>
@@ -24160,10 +24471,10 @@
         <v>82</v>
       </c>
       <c r="V317" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W317" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="318" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -24234,7 +24545,7 @@
         <v>172</v>
       </c>
       <c r="W318" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="319" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -24305,7 +24616,10 @@
         <v>82</v>
       </c>
       <c r="W319" t="s">
-        <v>325</v>
+        <v>324</v>
+      </c>
+      <c r="X319" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="320" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -24396,7 +24710,7 @@
         <v>15</v>
       </c>
       <c r="G321" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H321" t="s">
         <v>121</v>
@@ -24441,10 +24755,10 @@
         <v>100</v>
       </c>
       <c r="V321" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W321" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="322" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -24452,7 +24766,7 @@
         <v>42</v>
       </c>
       <c r="B322" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C322">
         <v>8</v>
@@ -24515,10 +24829,10 @@
         <v>90</v>
       </c>
       <c r="W322" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="323" spans="1:24" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="323" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>183</v>
       </c>
@@ -24586,7 +24900,7 @@
         <v>210</v>
       </c>
       <c r="X323" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="324" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -24594,7 +24908,7 @@
         <v>186</v>
       </c>
       <c r="B324" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C324">
         <v>6</v>
@@ -24657,7 +24971,7 @@
         <v>47</v>
       </c>
       <c r="W324" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="325" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -24733,7 +25047,7 @@
         <v>192</v>
       </c>
       <c r="B326" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C326">
         <v>3</v>
@@ -24794,6 +25108,9 @@
       </c>
       <c r="V326" t="s">
         <v>202</v>
+      </c>
+      <c r="X326" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="327" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -24864,10 +25181,10 @@
         <v>72</v>
       </c>
       <c r="W327" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X327" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="328" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -24958,7 +25275,7 @@
         <v>15</v>
       </c>
       <c r="G329" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H329" t="s">
         <v>121</v>
@@ -25003,7 +25320,7 @@
         <v>85</v>
       </c>
       <c r="V329" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="330" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -25074,15 +25391,15 @@
         <v>172</v>
       </c>
       <c r="W330" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="331" spans="1:24" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="331" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>183</v>
       </c>
       <c r="B331" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C331">
         <v>1</v>
@@ -25142,10 +25459,13 @@
         <v>140</v>
       </c>
       <c r="V331" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="W331" t="s">
+        <v>375</v>
       </c>
       <c r="X331" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
     </row>
     <row r="332" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -25153,7 +25473,7 @@
         <v>186</v>
       </c>
       <c r="B332" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C332">
         <v>5</v>
@@ -25213,10 +25533,10 @@
         <v>70</v>
       </c>
       <c r="V332" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W332" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="333" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -25224,7 +25544,7 @@
         <v>189</v>
       </c>
       <c r="B333" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C333">
         <v>7</v>
@@ -25292,7 +25612,7 @@
         <v>192</v>
       </c>
       <c r="B334" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C334">
         <v>5</v>
@@ -25355,7 +25675,10 @@
         <v>222</v>
       </c>
       <c r="W334" t="s">
-        <v>324</v>
+        <v>323</v>
+      </c>
+      <c r="X334" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="335" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -25426,7 +25749,10 @@
         <v>32</v>
       </c>
       <c r="W335" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="X335" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="336" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -25497,7 +25823,7 @@
         <v>79</v>
       </c>
       <c r="W336" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="337" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -25520,7 +25846,7 @@
         <v>15</v>
       </c>
       <c r="G337" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H337" t="s">
         <v>121</v>
@@ -25565,7 +25891,7 @@
         <v>85</v>
       </c>
       <c r="V337" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="338" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -25636,7 +25962,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>183</v>
       </c>
@@ -25704,10 +26030,10 @@
         <v>217</v>
       </c>
       <c r="W339" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="X339" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="340" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -25715,7 +26041,7 @@
         <v>186</v>
       </c>
       <c r="B340" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C340">
         <v>6</v>
@@ -25775,10 +26101,10 @@
         <v>80</v>
       </c>
       <c r="V340" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W340" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="341" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -25849,7 +26175,7 @@
         <v>47</v>
       </c>
       <c r="W341" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="342" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -25917,7 +26243,10 @@
         <v>85</v>
       </c>
       <c r="V342" t="s">
-        <v>297</v>
+        <v>296</v>
+      </c>
+      <c r="X342" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="343" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -25988,7 +26317,10 @@
         <v>82</v>
       </c>
       <c r="W343" t="s">
-        <v>325</v>
+        <v>324</v>
+      </c>
+      <c r="X343" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="344" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -26011,7 +26343,7 @@
         <v>15</v>
       </c>
       <c r="G344" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H344" t="s">
         <v>121</v>
@@ -26127,10 +26459,10 @@
         <v>90</v>
       </c>
       <c r="W345" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="346" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>183</v>
       </c>
@@ -26196,6 +26528,12 @@
       </c>
       <c r="V346" t="s">
         <v>226</v>
+      </c>
+      <c r="W346" t="s">
+        <v>378</v>
+      </c>
+      <c r="X346" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="347" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -26263,10 +26601,10 @@
         <v>95</v>
       </c>
       <c r="V347" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W347" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="348" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -26274,7 +26612,7 @@
         <v>189</v>
       </c>
       <c r="B348" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C348">
         <v>2</v>
@@ -26342,7 +26680,7 @@
         <v>192</v>
       </c>
       <c r="B349" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C349">
         <v>3</v>
@@ -26402,10 +26740,13 @@
         <v>95</v>
       </c>
       <c r="V349" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="W349" t="s">
-        <v>316</v>
+        <v>315</v>
+      </c>
+      <c r="X349" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="350" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -26476,7 +26817,10 @@
         <v>32</v>
       </c>
       <c r="W350" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="X350" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="351" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -26567,7 +26911,7 @@
         <v>15</v>
       </c>
       <c r="G352" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H352" t="s">
         <v>121</v>
@@ -26612,10 +26956,10 @@
         <v>80</v>
       </c>
       <c r="V352" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W352" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="353" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -26686,10 +27030,10 @@
         <v>172</v>
       </c>
       <c r="W353" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="354" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>183</v>
       </c>
@@ -26754,10 +27098,10 @@
         <v>130</v>
       </c>
       <c r="V354" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X354" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="355" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -26825,10 +27169,10 @@
         <v>80</v>
       </c>
       <c r="V355" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W355" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="356" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -26904,7 +27248,7 @@
         <v>192</v>
       </c>
       <c r="B357" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C357">
         <v>6</v>
@@ -26965,6 +27309,9 @@
       </c>
       <c r="V357" t="s">
         <v>202</v>
+      </c>
+      <c r="X357" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="358" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -26972,7 +27319,7 @@
         <v>22</v>
       </c>
       <c r="B358" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C358">
         <v>2</v>
@@ -27035,10 +27382,10 @@
         <v>72</v>
       </c>
       <c r="W358" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X358" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="359" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -27129,7 +27476,7 @@
         <v>15</v>
       </c>
       <c r="G360" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H360" t="s">
         <v>121</v>
@@ -27245,10 +27592,10 @@
         <v>90</v>
       </c>
       <c r="W361" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="362" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>183</v>
       </c>
@@ -27316,10 +27663,10 @@
         <v>217</v>
       </c>
       <c r="W362" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="X362" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="363" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -27387,10 +27734,10 @@
         <v>90</v>
       </c>
       <c r="V363" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W363" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="364" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -27526,7 +27873,10 @@
         <v>85</v>
       </c>
       <c r="V365" t="s">
-        <v>297</v>
+        <v>296</v>
+      </c>
+      <c r="X365" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="366" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -27594,7 +27944,10 @@
         <v>120</v>
       </c>
       <c r="V366" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="X366" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="367" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -27662,10 +28015,10 @@
         <v>135</v>
       </c>
       <c r="V367" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="W367" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="368" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -27688,7 +28041,7 @@
         <v>15</v>
       </c>
       <c r="G368" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H368" t="s">
         <v>121</v>
@@ -27804,7 +28157,7 @@
         <v>90</v>
       </c>
       <c r="W369" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="370" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -27812,7 +28165,7 @@
         <v>186</v>
       </c>
       <c r="B370" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C370">
         <v>6</v>
@@ -27872,10 +28225,10 @@
         <v>85</v>
       </c>
       <c r="V370" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W370" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="371" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -28013,6 +28366,9 @@
       <c r="V372" t="s">
         <v>202</v>
       </c>
+      <c r="X372" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="373" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
@@ -28034,7 +28390,7 @@
         <v>15</v>
       </c>
       <c r="G373" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H373" t="s">
         <v>121</v>
@@ -28079,7 +28435,7 @@
         <v>115</v>
       </c>
       <c r="V373" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="374" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -28150,10 +28506,10 @@
         <v>172</v>
       </c>
       <c r="W374" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="375" spans="1:24" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="375" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>183</v>
       </c>
@@ -28221,10 +28577,10 @@
         <v>217</v>
       </c>
       <c r="W375" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="X375" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="376" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -28292,10 +28648,10 @@
         <v>85</v>
       </c>
       <c r="V376" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W376" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="377" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -28431,10 +28787,13 @@
         <v>100</v>
       </c>
       <c r="V378" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="W378" t="s">
-        <v>316</v>
+        <v>315</v>
+      </c>
+      <c r="X378" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="379" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -28505,10 +28864,10 @@
         <v>72</v>
       </c>
       <c r="W379" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X379" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="380" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -28599,7 +28958,7 @@
         <v>15</v>
       </c>
       <c r="G381" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H381" t="s">
         <v>121</v>
@@ -28652,7 +29011,7 @@
         <v>42</v>
       </c>
       <c r="B382" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C382">
         <v>8</v>
@@ -28715,10 +29074,10 @@
         <v>90</v>
       </c>
       <c r="W382" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="383" spans="1:24" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="383" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>183</v>
       </c>
@@ -28786,10 +29145,10 @@
         <v>217</v>
       </c>
       <c r="W383" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="X383" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="384" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -28797,7 +29156,7 @@
         <v>186</v>
       </c>
       <c r="B384" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C384">
         <v>6</v>
@@ -28857,13 +29216,13 @@
         <v>85</v>
       </c>
       <c r="V384" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W384" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="385" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="385" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>189</v>
       </c>
@@ -28931,12 +29290,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="386" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>192</v>
       </c>
       <c r="B386" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C386">
         <v>6</v>
@@ -28996,10 +29355,13 @@
         <v>95</v>
       </c>
       <c r="V386" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="387" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="X386" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="387" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>22</v>
       </c>
@@ -29064,10 +29426,13 @@
         <v>120</v>
       </c>
       <c r="V387" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="388" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="X387" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="388" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>33</v>
       </c>
@@ -29132,10 +29497,10 @@
         <v>130</v>
       </c>
       <c r="V388" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="389" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="389" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>57</v>
       </c>
@@ -29155,7 +29520,7 @@
         <v>15</v>
       </c>
       <c r="G389" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H389" t="s">
         <v>121</v>
@@ -29203,10 +29568,10 @@
         <v>156</v>
       </c>
       <c r="W389" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="390" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="390" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>42</v>
       </c>
@@ -29274,10 +29639,10 @@
         <v>77</v>
       </c>
       <c r="W390" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="391" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="391" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>42</v>
       </c>
@@ -29345,15 +29710,15 @@
         <v>90</v>
       </c>
       <c r="W391" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="392" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="392" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>186</v>
       </c>
       <c r="B392" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C392">
         <v>4</v>
@@ -29413,18 +29778,18 @@
         <v>80</v>
       </c>
       <c r="V392" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W392" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="393" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="393" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>189</v>
       </c>
       <c r="B393" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C393">
         <v>3</v>
@@ -29487,12 +29852,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="394" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>192</v>
       </c>
       <c r="B394" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C394">
         <v>4</v>
@@ -29552,10 +29917,13 @@
         <v>100</v>
       </c>
       <c r="V394" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="395" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="X394" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="395" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>186</v>
       </c>
@@ -29620,13 +29988,13 @@
         <v>80</v>
       </c>
       <c r="V395" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W395" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="396" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="396" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>189</v>
       </c>
@@ -29691,10 +30059,10 @@
         <v>95</v>
       </c>
       <c r="V396" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="397" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="397" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>192</v>
       </c>
@@ -29762,10 +30130,13 @@
         <v>194</v>
       </c>
       <c r="W397" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="398" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="X397" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="398" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>57</v>
       </c>
@@ -29785,7 +30156,7 @@
         <v>15</v>
       </c>
       <c r="G398" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H398" t="s">
         <v>121</v>
@@ -29830,15 +30201,15 @@
         <v>120</v>
       </c>
       <c r="V398" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="399" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="399" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>42</v>
       </c>
       <c r="B399" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C399">
         <v>3</v>
@@ -29901,10 +30272,10 @@
         <v>90</v>
       </c>
       <c r="W399" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="400" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="400" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>189</v>
       </c>
@@ -29977,7 +30348,7 @@
         <v>192</v>
       </c>
       <c r="B401" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C401">
         <v>3</v>
@@ -30038,6 +30409,9 @@
       </c>
       <c r="V401" t="s">
         <v>202</v>
+      </c>
+      <c r="X401" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="402" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -30105,10 +30479,10 @@
         <v>120</v>
       </c>
       <c r="V402" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X402" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="403" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -30179,7 +30553,7 @@
         <v>79</v>
       </c>
       <c r="W403" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="404" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -30202,7 +30576,7 @@
         <v>15</v>
       </c>
       <c r="G404" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H404" t="s">
         <v>121</v>
@@ -30247,7 +30621,7 @@
         <v>110</v>
       </c>
       <c r="V404" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="405" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -30318,7 +30692,7 @@
         <v>77</v>
       </c>
       <c r="W405" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="406" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -30389,7 +30763,7 @@
         <v>90</v>
       </c>
       <c r="W406" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="407" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -30457,10 +30831,10 @@
         <v>80</v>
       </c>
       <c r="V407" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W407" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="408" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -30598,13 +30972,16 @@
       <c r="V409" t="s">
         <v>202</v>
       </c>
+      <c r="X409" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="410" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>42</v>
       </c>
       <c r="B410" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C410">
         <v>2</v>
@@ -30667,7 +31044,7 @@
         <v>172</v>
       </c>
       <c r="W410" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="411" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -30735,10 +31112,10 @@
         <v>85</v>
       </c>
       <c r="V411" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W411" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="412" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -30806,7 +31183,7 @@
         <v>100</v>
       </c>
       <c r="V412" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="413" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -30814,7 +31191,7 @@
         <v>192</v>
       </c>
       <c r="B413" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C413">
         <v>2</v>
@@ -30874,7 +31251,10 @@
         <v>110</v>
       </c>
       <c r="V413" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="X413" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="414" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -31010,7 +31390,10 @@
         <v>110</v>
       </c>
       <c r="V415" t="s">
-        <v>306</v>
+        <v>305</v>
+      </c>
+      <c r="X415" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="416" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -31018,7 +31401,7 @@
         <v>186</v>
       </c>
       <c r="B416" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C416">
         <v>5</v>
@@ -31078,10 +31461,10 @@
         <v>90</v>
       </c>
       <c r="V416" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W416" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="417" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -31089,7 +31472,7 @@
         <v>186</v>
       </c>
       <c r="B417" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C417">
         <v>6</v>
@@ -31152,7 +31535,7 @@
         <v>47</v>
       </c>
       <c r="W417" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="418" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -31223,7 +31606,10 @@
         <v>32</v>
       </c>
       <c r="W418" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="X418" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="419" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -31294,7 +31680,10 @@
         <v>32</v>
       </c>
       <c r="W419" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="X419" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="420" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -31388,7 +31777,7 @@
         <v>121</v>
       </c>
       <c r="H421" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I421" t="s">
         <v>25</v>
@@ -31453,7 +31842,7 @@
         <v>15</v>
       </c>
       <c r="G422" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H422" t="s">
         <v>121</v>
@@ -31498,7 +31887,7 @@
         <v>125</v>
       </c>
       <c r="V422" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="423" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -31569,7 +31958,10 @@
         <v>32</v>
       </c>
       <c r="W423" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="X423" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="424" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -31640,7 +32032,7 @@
         <v>41</v>
       </c>
       <c r="W424" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="425" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -31711,7 +32103,7 @@
         <v>47</v>
       </c>
       <c r="W425" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="426" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -31782,7 +32174,10 @@
         <v>51</v>
       </c>
       <c r="W426" t="s">
-        <v>339</v>
+        <v>338</v>
+      </c>
+      <c r="X426" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="427" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -31853,7 +32248,7 @@
         <v>56</v>
       </c>
       <c r="W427" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="428" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -31921,10 +32316,10 @@
         <v>85</v>
       </c>
       <c r="V428" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W428" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="429" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -31995,7 +32390,10 @@
         <v>64</v>
       </c>
       <c r="W429" t="s">
-        <v>333</v>
+        <v>332</v>
+      </c>
+      <c r="X429" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="430" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -32134,10 +32532,10 @@
         <v>72</v>
       </c>
       <c r="W431" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X431" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="432" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -32208,7 +32606,7 @@
         <v>77</v>
       </c>
       <c r="W432" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="433" spans="1:24" x14ac:dyDescent="0.25">
@@ -32228,16 +32626,16 @@
         <v>1.8</v>
       </c>
       <c r="F433" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G433" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H433" t="s">
         <v>53</v>
       </c>
       <c r="I433" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J433" t="s">
         <v>66</v>
@@ -32276,20 +32674,25 @@
         <v>155</v>
       </c>
       <c r="V433" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="W433" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="X433" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W432" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:W433" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="Rabbit"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="21">
+      <filters>
+        <filter val="Mange"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/cleaned_animal_disease_prediction.xlsx
+++ b/cleaned_animal_disease_prediction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abbey\Documents\finalyear_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F278F5-A7C8-45BE-B690-433C02F7E14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1DB963-296A-407F-BEE4-224EBE1A806E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2086,8 +2086,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:X433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="X433" sqref="X433"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B268" sqref="B268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9598,7 +9598,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>183</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="115" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>183</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>183</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="130" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>183</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="138" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>183</v>
       </c>
@@ -12355,7 +12355,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="146" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>183</v>
       </c>
@@ -12917,7 +12917,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="154" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>183</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="159" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>183</v>
       </c>
@@ -13837,7 +13837,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="167" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>183</v>
       </c>
@@ -14399,7 +14399,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="175" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>183</v>
       </c>
@@ -14958,7 +14958,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="183" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="188" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>183</v>
       </c>
@@ -15875,7 +15875,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="196" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>183</v>
       </c>
@@ -16437,7 +16437,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="204" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>183</v>
       </c>
@@ -17283,7 +17283,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="216" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>183</v>
       </c>
@@ -17848,7 +17848,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="224" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>183</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="232" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>183</v>
       </c>
@@ -19259,7 +19259,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="244" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>183</v>
       </c>
@@ -19818,7 +19818,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="252" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>183</v>
       </c>
@@ -20383,7 +20383,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="260" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>183</v>
       </c>
@@ -20939,7 +20939,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="268" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>183</v>
       </c>
@@ -21507,7 +21507,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="276" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>183</v>
       </c>
@@ -22066,7 +22066,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="284" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>183</v>
       </c>
@@ -22847,7 +22847,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="295" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>183</v>
       </c>
@@ -23412,7 +23412,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="303" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>183</v>
       </c>
@@ -23983,7 +23983,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="311" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>183</v>
       </c>
@@ -24832,7 +24832,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="323" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>183</v>
       </c>
@@ -25394,7 +25394,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="331" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>183</v>
       </c>
@@ -25962,7 +25962,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="339" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>183</v>
       </c>
@@ -26462,7 +26462,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="346" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>183</v>
       </c>
@@ -27033,7 +27033,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="354" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>183</v>
       </c>
@@ -27595,7 +27595,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="362" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>183</v>
       </c>
@@ -28509,7 +28509,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="375" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>183</v>
       </c>
@@ -29077,7 +29077,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="383" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>183</v>
       </c>
@@ -32690,11 +32690,6 @@
         <filter val="Rabbit"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="21">
-      <filters>
-        <filter val="Mange"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/cleaned_animal_disease_prediction.xlsx
+++ b/cleaned_animal_disease_prediction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abbey\Documents\finalyear_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1DB963-296A-407F-BEE4-224EBE1A806E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30141ADF-7141-41E2-85EE-5AEDC7B0145D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8611" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8812" uniqueCount="471">
   <si>
     <t>species</t>
   </si>
@@ -1150,21 +1150,12 @@
     <t>Give Acaricides (Anti-Mite Medications). Medicated shampoos or lime-sulfur dips. Clean cages</t>
   </si>
   <si>
-    <t>There is no specific treatment for myxomatosis</t>
-  </si>
-  <si>
     <t>Fatal viral disease in rabbits; swollen eyes, skin Lesions; spread by insects.</t>
   </si>
   <si>
     <t>Respiratory infection in rabbit is a bacterial infection that affects the respiratory system.</t>
   </si>
   <si>
-    <t>Give Antibiotics:Enrofloxacin (Baytril®);Nebulization: Saline or antibiotics to clear airways.</t>
-  </si>
-  <si>
-    <t>Give Antibiotics:NEVER use penicillin(toxic to rabbits);Improve ventilation</t>
-  </si>
-  <si>
     <t>A contagious respiratory infection in dogs caused by influenza viruses (strains H3N8 and H3N2).</t>
   </si>
   <si>
@@ -1235,6 +1226,216 @@
   </si>
   <si>
     <t>Mange is a skin disease caused by infestation of parasitic mites.</t>
+  </si>
+  <si>
+    <t>Treat with species-specific dewormers (e.g., fenbendazole, pyrantel) and hygiene to prevent reinfection.</t>
+  </si>
+  <si>
+    <t>vet-prescribed NSAIDs (e.g., carprofen), joint supplements (glucosamine/chondroitin), weight management, low-impact exercise, home modifications (orthopedic beds, ramps), and advanced options like monoclonal antibody therapy (Librela)</t>
+  </si>
+  <si>
+    <t>Supportive care (antivirals like famciclovir, lysine), antibiotics for secondary infections, and stress reduction.</t>
+  </si>
+  <si>
+    <t>Rest, NSAIDs, supportive care, and vaccination to prevent outbreaks.</t>
+  </si>
+  <si>
+    <t>No cure; manage with antivirals (interferon), antibiotics for infections, and palliative care.</t>
+  </si>
+  <si>
+    <t>Experimental antivirals (e.g., GS-441524), supportive care, no definitive cure.</t>
+  </si>
+  <si>
+    <t>Isolation, NSAIDs, fluids; stallions may be culled to prevent spread.</t>
+  </si>
+  <si>
+    <t>There is no cure for Bovine Johne’s Disease (paratuberculosis), so management focuses on culling infected animals, improving herd biosecurity, ensuring calf hygiene, testing/surveillance, and vaccination (where available) to reduce transmission, alongside maintaining optimal nutrition and veterinary-guided protocols.</t>
+  </si>
+  <si>
+    <t>Antiprotozoals (imidocarb), supportive care, tick control to prevent transmission.</t>
+  </si>
+  <si>
+    <t>Bronchodilators, corticosteroids, antibiotics for infections, and environmental management.</t>
+  </si>
+  <si>
+    <t>No cure; infected horses are euthanized or isolated for life to prevent spread.</t>
+  </si>
+  <si>
+    <t>Supportive care, culling persistently infected animals, biosecurity, and vaccination.</t>
+  </si>
+  <si>
+    <t>NPO (nothing by mouth), IV fluids, pain management, and antibiotics if infected.</t>
+  </si>
+  <si>
+    <t>Antibiotics for secondary infections, antivirals (if severe), hydration, and stress reduction.</t>
+  </si>
+  <si>
+    <t>Antiparasitics (nitazoxanide), fluids, and hygiene to limit zoonotic spread.</t>
+  </si>
+  <si>
+    <t>Dietary management (hypoallergenic food), corticosteroids, immunosuppressants.</t>
+  </si>
+  <si>
+    <t>There is no cure or specific antiviral treatment for Bovine Leukemia Virus (BLV); management focuses on culling infected animals, preventing transmission (e.g., sterilizing equipment, avoiding blood/milk transfer), testing/surveillance, maintaining herd health, and selective breeding for genetic resistance, with some countries implementing national eradication programs.</t>
+  </si>
+  <si>
+    <t>allergen avoidance, oral/nasal antihistamines (e.g., cetirizine, azelastine), intranasal corticosteroids (fluticasone, mometasone), immunotherapy (allergy shots/sublingual drops) for long-term relief, biologics (omalizumab) in severe cases, and avoiding prolonged nasal decongestants to prevent rebound congestion.</t>
+  </si>
+  <si>
+    <t>Antibiotics (doxycycline), NSAIDs, and vaccination in endemic areas.</t>
+  </si>
+  <si>
+    <t>Fluid therapy, phosphate binders, renal diets, and managing complications (e.g., anemia).</t>
+  </si>
+  <si>
+    <t>There is no direct antiviral treatment for Bovine Respiratory Syncytial Virus (BRSV); management includes antibiotics (e.g., florfenicol) for secondary bacterial infections, anti-inflammatories (NSAIDs), supportive care (fluids, nutrition), prevention via vaccination (multivalent vaccines), stress reduction, and improved herd ventilation</t>
+  </si>
+  <si>
+    <t>Antivirals, antibiotics for secondary infections, eye drops, and hydration.</t>
+  </si>
+  <si>
+    <t>Rest, fluids, antibiotics for pneumonia, and vaccination for prevention.</t>
+  </si>
+  <si>
+    <t>Supportive care (oxygen, fluids), antivirals (rarely), and prevention via hygiene.</t>
+  </si>
+  <si>
+    <t>Dopamine agonists (pergolide), dietary management, and hoof care.</t>
+  </si>
+  <si>
+    <t>Methimazole, radioactive iodine (I-131), or surgical thyroidectomy.</t>
+  </si>
+  <si>
+    <t>Supportive care (fluids, liver protectants), vaccination to prevent.</t>
+  </si>
+  <si>
+    <t>No cure; supportive care, vaccination, and mosquito control.</t>
+  </si>
+  <si>
+    <t>treatment includes antibiotics (e.g., tetracyclines, florfenicol), anti-inflammatories, supportive care (hydration, nutrition), and prevention via vaccination, biosecurity, and stress reduction</t>
+  </si>
+  <si>
+    <t>Antibiotics (enrofloxacin), nasal flushing, and stress reduction.</t>
+  </si>
+  <si>
+    <t>Antibiotics (culture-guided), oxygen therapy, nebulization, and fluids.</t>
+  </si>
+  <si>
+    <t>Fluids, electrolytes, antibiotics (if bacterial), and dietary adjustment.</t>
+  </si>
+  <si>
+    <t>No cure; manage pain (NSAIDs), cull infected herds, and test kids.</t>
+  </si>
+  <si>
+    <t>Antivirals (oseltamivir), antibiotics for secondary infections, vaccination.</t>
+  </si>
+  <si>
+    <t>Manage with NSAIDs (e.g., phenylbutazone), joint supplements (hyaluronic acid), intra-articular therapies (steroids), and controlled exercise.</t>
+  </si>
+  <si>
+    <t>Fluid therapy, motility drugs (cisapride), fiber-rich diet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Antivirals, antibiotics, nebulization, and isolation.</t>
+  </si>
+  <si>
+    <t>Treat with species-specific antibiotics, antivirals (if viral), supportive care (fluids, oxygen), and isolation to prevent spread.</t>
+  </si>
+  <si>
+    <t>Antibiotics (e.g., oxytetracycline), NSAIDs, improved ventilation, and vaccination for pathogens like Mannheimia haemolytica.</t>
+  </si>
+  <si>
+    <t>Antivirals (famciclovir), antibiotics (for secondary bacteria), nebulization, and stress reduction.</t>
+  </si>
+  <si>
+    <t>Similar to general respiratory infection: antibiotics, antivirals, hydration, and environmental management.</t>
+  </si>
+  <si>
+    <t>Antibiotics (oxytetracycline), hoof trimming, and dry environment.</t>
+  </si>
+  <si>
+    <t>Fluids, electrolytes, antibiotics (if bacterial), probiotics, and dietary management.</t>
+  </si>
+  <si>
+    <t>Weight loss, low-sugar diet, exercise, and metformin (if needed).</t>
+  </si>
+  <si>
+    <t>No cure; euthanasia recommended; prevention via vaccination and flea control.</t>
+  </si>
+  <si>
+    <t>Lance/drain abscesses, long-term antibiotics (penicillin), cull chronic cases.</t>
+  </si>
+  <si>
+    <t>Antibiotics (tylosin, oxytetracycline), NSAIDs, and isolation.</t>
+  </si>
+  <si>
+    <t>Doxycycline, fluids, liver/kidney support, and vaccination.</t>
+  </si>
+  <si>
+    <t>Penicillin-G injections, hygiene, and isolate infected rabbits.</t>
+  </si>
+  <si>
+    <t>Tetracyclines, culling chronic cases, and vaccination.</t>
+  </si>
+  <si>
+    <t>Antibiotics (doxycycline), eye ointments, and hygiene.</t>
+  </si>
+  <si>
+    <t>Isolation, NSAIDs, antiviral drugs (e.g., valacyclovir in neurologic cases), and vaccination to reduce outbreaks.</t>
+  </si>
+  <si>
+    <t>Rest, fluids, antibiotics for secondary pneumonia, and vaccination to prevent spread.</t>
+  </si>
+  <si>
+    <t>Antiprotozoals (ponazuril, diclazuril), NSAIDs.</t>
+  </si>
+  <si>
+    <t>Antibiotics (florfenicol), vaccines, and improved ventilation.</t>
+  </si>
+  <si>
+    <t>No treatment for asymptomatic cases; manage stress and hygiene.</t>
+  </si>
+  <si>
+    <t>Supportive care (fluids, anti-seizure meds), vaccination, and mosquito control to prevent transmission.</t>
+  </si>
+  <si>
+    <t>There is no direct antiviral treatment for Bovine Parainfluenza Virus (BPIV-3), but management focuses on controlling secondary bacterial infections with antibiotics (e.g., florfenicol, tetracyclines), anti-inflammatories (NSAIDs), supportive care (hydration, nutrition), and prevention via vaccination (multivalent vaccines targeting PI3), stress reduction, and biosecurity measures.</t>
+  </si>
+  <si>
+    <t>Supportive care, NSAIDs, cull infected goats to prevent spread.</t>
+  </si>
+  <si>
+    <t>Corticosteroids, bronchodilators, and reducing environmental triggers.</t>
+  </si>
+  <si>
+    <t>No treatment; vaccination and strict biosecurity.</t>
+  </si>
+  <si>
+    <t>No cure; cull infected flocks, test and isolate new stock.</t>
+  </si>
+  <si>
+    <t>Penicillin, vaccination, and hygiene to control outbreaks.</t>
+  </si>
+  <si>
+    <t>ull infected animals; antibiotics (tetracycline + streptomycin)</t>
+  </si>
+  <si>
+    <t>Antivirals (oseltamivir), antibiotics for secondary infections, vaccination, and improved biosecurity.</t>
+  </si>
+  <si>
+    <t>No cure; culling, quarantine, and vaccination (classical swine fever only).</t>
+  </si>
+  <si>
+    <t>No treatment; strict biosecurity and vaccination.</t>
+  </si>
+  <si>
+    <t>No cure; vaccination, quarantine, and cull infected herds.</t>
+  </si>
+  <si>
+    <t>Supportive care, liver protectants, and vaccination.</t>
+  </si>
+  <si>
+    <t>Vaccination, antibiotics for secondary infections, improve husbandry.</t>
   </si>
 </sst>
 </file>
@@ -2083,11 +2284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:X433"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B268" sqref="B268"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2170,7 +2370,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2241,10 +2441,10 @@
         <v>348</v>
       </c>
       <c r="X2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -2315,7 +2515,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2386,7 +2586,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2457,10 +2657,10 @@
         <v>338</v>
       </c>
       <c r="X5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -2531,7 +2731,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2602,7 +2802,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2673,10 +2873,10 @@
         <v>332</v>
       </c>
       <c r="X8" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -2743,8 +2943,11 @@
       <c r="V9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2818,7 +3021,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -2889,7 +3092,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2960,7 +3163,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3031,10 +3234,10 @@
         <v>324</v>
       </c>
       <c r="X13" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -3105,7 +3308,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -3176,7 +3379,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -3247,7 +3450,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -3318,10 +3521,10 @@
         <v>348</v>
       </c>
       <c r="X17" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -3392,7 +3595,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="19" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3463,10 +3666,10 @@
         <v>332</v>
       </c>
       <c r="X19" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -3537,7 +3740,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -3608,7 +3811,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -3679,7 +3882,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -3750,7 +3953,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3821,10 +4024,10 @@
         <v>324</v>
       </c>
       <c r="X24" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3895,7 +4098,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -3966,7 +4169,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -4033,11 +4236,14 @@
       <c r="V27" t="s">
         <v>104</v>
       </c>
+      <c r="W27" t="s">
+        <v>402</v>
+      </c>
       <c r="X27" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -4104,8 +4310,11 @@
       <c r="V28" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W28" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -4172,8 +4381,11 @@
       <c r="V29" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W29" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -4244,10 +4456,10 @@
         <v>348</v>
       </c>
       <c r="X30" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -4314,8 +4526,11 @@
       <c r="V31" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W31" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -4386,7 +4601,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -4460,7 +4675,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -4527,8 +4742,11 @@
       <c r="V34" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -4595,8 +4813,11 @@
       <c r="V35" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W35" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -4663,8 +4884,11 @@
       <c r="V36" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W36" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -4738,7 +4962,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -4809,7 +5033,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -4876,8 +5100,11 @@
       <c r="V39" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W39" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -4948,7 +5175,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -5015,11 +5242,14 @@
       <c r="V41" t="s">
         <v>119</v>
       </c>
+      <c r="W41" t="s">
+        <v>410</v>
+      </c>
       <c r="X41" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -5090,7 +5320,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -5161,10 +5391,10 @@
         <v>348</v>
       </c>
       <c r="X43" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -5235,7 +5465,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -5306,7 +5536,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -5377,7 +5607,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="47" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -5448,10 +5678,10 @@
         <v>338</v>
       </c>
       <c r="X47" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -5518,8 +5748,11 @@
       <c r="V48" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W48" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -5586,8 +5819,11 @@
       <c r="V49" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W49" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -5654,8 +5890,11 @@
       <c r="V50" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W50" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -5726,10 +5965,10 @@
         <v>324</v>
       </c>
       <c r="X51" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -5796,8 +6035,11 @@
       <c r="V52" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W52" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -5868,7 +6110,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -5939,7 +6181,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="55" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -6010,10 +6252,10 @@
         <v>348</v>
       </c>
       <c r="X55" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -6080,8 +6322,11 @@
       <c r="V56" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W56" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -6152,7 +6397,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -6219,8 +6464,11 @@
       <c r="V58" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W58" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -6291,10 +6539,10 @@
         <v>324</v>
       </c>
       <c r="X59" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -6361,8 +6609,11 @@
       <c r="V60" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W60" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -6433,7 +6684,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="62" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -6500,8 +6751,11 @@
       <c r="V62" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W62" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>22</v>
       </c>
@@ -6568,11 +6822,14 @@
       <c r="V63" t="s">
         <v>145</v>
       </c>
+      <c r="W63" t="s">
+        <v>418</v>
+      </c>
       <c r="X63" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="64" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -6643,7 +6900,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="65" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>57</v>
       </c>
@@ -6710,8 +6967,11 @@
       <c r="V65" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W65" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>42</v>
       </c>
@@ -6782,7 +7042,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>22</v>
       </c>
@@ -6853,10 +7113,10 @@
         <v>338</v>
       </c>
       <c r="X67" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -6923,8 +7183,11 @@
       <c r="V68" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W68" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>57</v>
       </c>
@@ -6995,7 +7258,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="70" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>42</v>
       </c>
@@ -7062,8 +7325,11 @@
       <c r="V70" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W70" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>22</v>
       </c>
@@ -7137,7 +7403,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="72" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -7204,8 +7470,11 @@
       <c r="V72" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W72" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -7276,10 +7545,10 @@
         <v>324</v>
       </c>
       <c r="X73" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -7346,8 +7615,11 @@
       <c r="V74" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W74" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>57</v>
       </c>
@@ -7418,7 +7690,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="76" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>42</v>
       </c>
@@ -7489,7 +7761,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="77" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>22</v>
       </c>
@@ -7560,10 +7832,10 @@
         <v>338</v>
       </c>
       <c r="X77" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>33</v>
       </c>
@@ -7634,7 +7906,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="79" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>57</v>
       </c>
@@ -7705,7 +7977,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="80" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -7772,8 +8044,11 @@
       <c r="V80" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W80" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -7844,10 +8119,10 @@
         <v>348</v>
       </c>
       <c r="X81" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -7914,8 +8189,11 @@
       <c r="V82" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W82" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>57</v>
       </c>
@@ -7986,7 +8264,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="84" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>42</v>
       </c>
@@ -8057,7 +8335,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="85" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>22</v>
       </c>
@@ -8124,11 +8402,14 @@
       <c r="V85" t="s">
         <v>165</v>
       </c>
+      <c r="W85" t="s">
+        <v>423</v>
+      </c>
       <c r="X85" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -8195,8 +8476,11 @@
       <c r="V86" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W86" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>57</v>
       </c>
@@ -8263,8 +8547,11 @@
       <c r="V87" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W87" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>42</v>
       </c>
@@ -8331,8 +8618,11 @@
       <c r="V88" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W88" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -8403,10 +8693,10 @@
         <v>338</v>
       </c>
       <c r="X89" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>33</v>
       </c>
@@ -8473,8 +8763,11 @@
       <c r="V90" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W90" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>57</v>
       </c>
@@ -8541,8 +8834,11 @@
       <c r="V91" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W91" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>42</v>
       </c>
@@ -8613,7 +8909,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="93" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -8680,11 +8976,14 @@
       <c r="V93" t="s">
         <v>129</v>
       </c>
+      <c r="W93" t="s">
+        <v>413</v>
+      </c>
       <c r="X93" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -8751,8 +9050,11 @@
       <c r="V94" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W94" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>57</v>
       </c>
@@ -8823,7 +9125,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="96" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>42</v>
       </c>
@@ -8894,7 +9196,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="97" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -8961,11 +9263,14 @@
       <c r="V97" t="s">
         <v>179</v>
       </c>
+      <c r="W97" t="s">
+        <v>427</v>
+      </c>
       <c r="X97" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="98" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -9036,7 +9341,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="99" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>57</v>
       </c>
@@ -9103,8 +9408,11 @@
       <c r="V99" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W99" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>42</v>
       </c>
@@ -9171,8 +9479,11 @@
       <c r="V100" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="101" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W100" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>22</v>
       </c>
@@ -9243,10 +9554,10 @@
         <v>338</v>
       </c>
       <c r="X101" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>33</v>
       </c>
@@ -9313,8 +9624,11 @@
       <c r="V102" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="103" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W102" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>22</v>
       </c>
@@ -9385,10 +9699,10 @@
         <v>338</v>
       </c>
       <c r="X103" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>33</v>
       </c>
@@ -9459,7 +9773,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="105" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>57</v>
       </c>
@@ -9530,7 +9844,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="106" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>42</v>
       </c>
@@ -9596,6 +9910,9 @@
       </c>
       <c r="V106" t="s">
         <v>113</v>
+      </c>
+      <c r="W106" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.25">
@@ -9666,13 +9983,13 @@
         <v>185</v>
       </c>
       <c r="W107" t="s">
-        <v>379</v>
+        <v>430</v>
       </c>
       <c r="X107" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="108" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>186</v>
       </c>
@@ -9739,8 +10056,11 @@
       <c r="V108" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="109" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W108" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>189</v>
       </c>
@@ -9811,7 +10131,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="110" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>192</v>
       </c>
@@ -9882,10 +10202,10 @@
         <v>340</v>
       </c>
       <c r="X110" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>22</v>
       </c>
@@ -9956,10 +10276,10 @@
         <v>348</v>
       </c>
       <c r="X111" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="112" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>33</v>
       </c>
@@ -10026,8 +10346,11 @@
       <c r="V112" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="113" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W112" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>57</v>
       </c>
@@ -10098,7 +10421,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="114" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>42</v>
       </c>
@@ -10236,11 +10559,14 @@
       <c r="V115" t="s">
         <v>196</v>
       </c>
+      <c r="W115" t="s">
+        <v>432</v>
+      </c>
       <c r="X115" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="116" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>186</v>
       </c>
@@ -10311,7 +10637,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="117" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>189</v>
       </c>
@@ -10378,8 +10704,11 @@
       <c r="V117" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="118" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W117" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>192</v>
       </c>
@@ -10446,11 +10775,14 @@
       <c r="V118" t="s">
         <v>202</v>
       </c>
+      <c r="W118" t="s">
+        <v>434</v>
+      </c>
       <c r="X118" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="119" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>22</v>
       </c>
@@ -10517,11 +10849,14 @@
       <c r="V119" t="s">
         <v>129</v>
       </c>
+      <c r="W119" t="s">
+        <v>413</v>
+      </c>
       <c r="X119" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="120" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>33</v>
       </c>
@@ -10588,8 +10923,11 @@
       <c r="V120" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="121" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W120" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>57</v>
       </c>
@@ -10656,8 +10994,11 @@
       <c r="V121" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="122" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W121" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>42</v>
       </c>
@@ -10723,6 +11064,9 @@
       </c>
       <c r="V122" t="s">
         <v>113</v>
+      </c>
+      <c r="W122" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.25">
@@ -10792,11 +11136,14 @@
       <c r="V123" t="s">
         <v>208</v>
       </c>
+      <c r="W123" t="s">
+        <v>436</v>
+      </c>
       <c r="X123" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="124" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>186</v>
       </c>
@@ -10863,8 +11210,11 @@
       <c r="V124" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="125" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W124" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>189</v>
       </c>
@@ -10935,7 +11285,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="126" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>22</v>
       </c>
@@ -11006,10 +11356,10 @@
         <v>348</v>
       </c>
       <c r="X126" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="127" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -11076,8 +11426,11 @@
       <c r="V127" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="128" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W127" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>57</v>
       </c>
@@ -11148,7 +11501,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="129" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>42</v>
       </c>
@@ -11293,7 +11646,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="131" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>186</v>
       </c>
@@ -11364,7 +11717,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="132" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>189</v>
       </c>
@@ -11435,7 +11788,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="133" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>192</v>
       </c>
@@ -11506,10 +11859,10 @@
         <v>323</v>
       </c>
       <c r="X133" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="134" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>22</v>
       </c>
@@ -11576,11 +11929,14 @@
       <c r="V134" t="s">
         <v>179</v>
       </c>
+      <c r="W134" t="s">
+        <v>427</v>
+      </c>
       <c r="X134" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="135" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>33</v>
       </c>
@@ -11647,8 +12003,11 @@
       <c r="V135" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="136" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W135" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>57</v>
       </c>
@@ -11715,8 +12074,11 @@
       <c r="V136" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="137" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W136" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>42</v>
       </c>
@@ -11855,13 +12217,13 @@
         <v>226</v>
       </c>
       <c r="W138" t="s">
-        <v>378</v>
+        <v>438</v>
       </c>
       <c r="X138" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="139" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>186</v>
       </c>
@@ -11932,7 +12294,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="140" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>189</v>
       </c>
@@ -11999,8 +12361,11 @@
       <c r="V140" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="141" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W140" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>192</v>
       </c>
@@ -12071,10 +12436,10 @@
         <v>327</v>
       </c>
       <c r="X141" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="142" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>22</v>
       </c>
@@ -12145,10 +12510,10 @@
         <v>324</v>
       </c>
       <c r="X142" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="143" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>33</v>
       </c>
@@ -12215,8 +12580,11 @@
       <c r="V143" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="144" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W143" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>57</v>
       </c>
@@ -12283,8 +12651,11 @@
       <c r="V144" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="145" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W144" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>42</v>
       </c>
@@ -12423,13 +12794,13 @@
         <v>185</v>
       </c>
       <c r="W146" t="s">
-        <v>379</v>
+        <v>441</v>
       </c>
       <c r="X146" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="147" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>186</v>
       </c>
@@ -12496,8 +12867,11 @@
       <c r="V147" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="148" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W147" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>189</v>
       </c>
@@ -12564,8 +12938,11 @@
       <c r="V148" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="149" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W148" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>192</v>
       </c>
@@ -12636,10 +13013,10 @@
         <v>323</v>
       </c>
       <c r="X149" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="150" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>22</v>
       </c>
@@ -12710,10 +13087,10 @@
         <v>348</v>
       </c>
       <c r="X150" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="151" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>33</v>
       </c>
@@ -12780,8 +13157,11 @@
       <c r="V151" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="152" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W151" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>57</v>
       </c>
@@ -12848,8 +13228,11 @@
       <c r="V152" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="153" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W152" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>42</v>
       </c>
@@ -12915,6 +13298,9 @@
       </c>
       <c r="V153" t="s">
         <v>113</v>
+      </c>
+      <c r="W153" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="154" spans="1:24" x14ac:dyDescent="0.25">
@@ -12984,11 +13370,14 @@
       <c r="V154" t="s">
         <v>210</v>
       </c>
+      <c r="W154" t="s">
+        <v>430</v>
+      </c>
       <c r="X154" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="155" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>22</v>
       </c>
@@ -13059,10 +13448,10 @@
         <v>348</v>
       </c>
       <c r="X155" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="156" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>33</v>
       </c>
@@ -13129,8 +13518,11 @@
       <c r="V156" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="157" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W156" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>57</v>
       </c>
@@ -13201,7 +13593,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="158" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>42</v>
       </c>
@@ -13346,7 +13738,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="160" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>186</v>
       </c>
@@ -13417,7 +13809,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="161" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>189</v>
       </c>
@@ -13484,8 +13876,11 @@
       <c r="V161" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="162" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W161" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>192</v>
       </c>
@@ -13552,11 +13947,14 @@
       <c r="V162" t="s">
         <v>202</v>
       </c>
+      <c r="W162" t="s">
+        <v>434</v>
+      </c>
       <c r="X162" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="163" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>22</v>
       </c>
@@ -13630,7 +14028,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="164" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>33</v>
       </c>
@@ -13697,8 +14095,11 @@
       <c r="V164" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="165" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W164" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>57</v>
       </c>
@@ -13765,8 +14166,11 @@
       <c r="V165" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="166" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W165" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>42</v>
       </c>
@@ -13905,13 +14309,13 @@
         <v>247</v>
       </c>
       <c r="W167" t="s">
+        <v>445</v>
+      </c>
+      <c r="X167" t="s">
         <v>375</v>
       </c>
-      <c r="X167" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="168" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>186</v>
       </c>
@@ -13978,8 +14382,11 @@
       <c r="V168" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="169" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W168" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>189</v>
       </c>
@@ -14046,8 +14453,11 @@
       <c r="V169" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="170" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W169" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>192</v>
       </c>
@@ -14118,10 +14528,10 @@
         <v>323</v>
       </c>
       <c r="X170" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="171" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>22</v>
       </c>
@@ -14188,11 +14598,14 @@
       <c r="V171" t="s">
         <v>252</v>
       </c>
+      <c r="W171" t="s">
+        <v>448</v>
+      </c>
       <c r="X171" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="172" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>33</v>
       </c>
@@ -14259,8 +14672,11 @@
       <c r="V172" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="173" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W172" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>57</v>
       </c>
@@ -14331,7 +14747,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="174" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>42</v>
       </c>
@@ -14397,6 +14813,9 @@
       </c>
       <c r="V174" t="s">
         <v>113</v>
+      </c>
+      <c r="W174" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="175" spans="1:24" x14ac:dyDescent="0.25">
@@ -14466,11 +14885,14 @@
       <c r="V175" t="s">
         <v>254</v>
       </c>
+      <c r="W175" t="s">
+        <v>449</v>
+      </c>
       <c r="X175" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="176" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>186</v>
       </c>
@@ -14537,8 +14959,11 @@
       <c r="V176" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="177" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W176" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>189</v>
       </c>
@@ -14605,8 +15030,11 @@
       <c r="V177" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="178" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W177" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -14677,10 +15105,10 @@
         <v>347</v>
       </c>
       <c r="X178" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="179" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>22</v>
       </c>
@@ -14747,11 +15175,14 @@
       <c r="V179" t="s">
         <v>252</v>
       </c>
+      <c r="W179" t="s">
+        <v>448</v>
+      </c>
       <c r="X179" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="180" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>33</v>
       </c>
@@ -14818,8 +15249,11 @@
       <c r="V180" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="181" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W180" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>57</v>
       </c>
@@ -14890,7 +15324,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="182" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>42</v>
       </c>
@@ -14956,6 +15390,9 @@
       </c>
       <c r="V182" t="s">
         <v>126</v>
+      </c>
+      <c r="W182" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="183" spans="1:24" x14ac:dyDescent="0.25">
@@ -15026,13 +15463,13 @@
         <v>247</v>
       </c>
       <c r="W183" t="s">
+        <v>445</v>
+      </c>
+      <c r="X183" t="s">
         <v>375</v>
       </c>
-      <c r="X183" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="184" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>22</v>
       </c>
@@ -15103,10 +15540,10 @@
         <v>348</v>
       </c>
       <c r="X184" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="185" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>33</v>
       </c>
@@ -15173,8 +15610,11 @@
       <c r="V185" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="186" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W185" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>57</v>
       </c>
@@ -15241,8 +15681,11 @@
       <c r="V186" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="187" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W186" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>42</v>
       </c>
@@ -15308,6 +15751,9 @@
       </c>
       <c r="V187" t="s">
         <v>152</v>
+      </c>
+      <c r="W187" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="188" spans="1:24" x14ac:dyDescent="0.25">
@@ -15377,11 +15823,14 @@
       <c r="V188" t="s">
         <v>254</v>
       </c>
+      <c r="W188" t="s">
+        <v>449</v>
+      </c>
       <c r="X188" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="189" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>186</v>
       </c>
@@ -15452,7 +15901,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="190" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -15519,8 +15968,11 @@
       <c r="V190" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="191" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W190" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -15591,10 +16043,10 @@
         <v>340</v>
       </c>
       <c r="X191" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="192" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>22</v>
       </c>
@@ -15668,7 +16120,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="193" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>33</v>
       </c>
@@ -15735,8 +16187,11 @@
       <c r="V193" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="194" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W193" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>57</v>
       </c>
@@ -15803,8 +16258,11 @@
       <c r="V194" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="195" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W194" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>42</v>
       </c>
@@ -15943,13 +16401,13 @@
         <v>247</v>
       </c>
       <c r="W196" t="s">
+        <v>445</v>
+      </c>
+      <c r="X196" t="s">
         <v>375</v>
       </c>
-      <c r="X196" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="197" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>186</v>
       </c>
@@ -16016,8 +16474,11 @@
       <c r="V197" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="198" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W197" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>189</v>
       </c>
@@ -16084,8 +16545,11 @@
       <c r="V198" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="199" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W198" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>192</v>
       </c>
@@ -16152,11 +16616,14 @@
       <c r="V199" t="s">
         <v>202</v>
       </c>
+      <c r="W199" t="s">
+        <v>434</v>
+      </c>
       <c r="X199" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="200" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>22</v>
       </c>
@@ -16223,11 +16690,14 @@
       <c r="V200" t="s">
         <v>252</v>
       </c>
+      <c r="W200" t="s">
+        <v>448</v>
+      </c>
       <c r="X200" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="201" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>33</v>
       </c>
@@ -16294,8 +16764,11 @@
       <c r="V201" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="202" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W201" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>57</v>
       </c>
@@ -16366,7 +16839,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="203" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>42</v>
       </c>
@@ -16511,7 +16984,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="205" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>186</v>
       </c>
@@ -16582,7 +17055,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="206" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>189</v>
       </c>
@@ -16649,8 +17122,11 @@
       <c r="V206" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="207" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W206" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>192</v>
       </c>
@@ -16721,10 +17197,10 @@
         <v>320</v>
       </c>
       <c r="X207" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="208" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>22</v>
       </c>
@@ -16795,10 +17271,10 @@
         <v>324</v>
       </c>
       <c r="X208" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="209" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>33</v>
       </c>
@@ -16865,8 +17341,11 @@
       <c r="V209" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="210" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W209" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>57</v>
       </c>
@@ -16933,8 +17412,11 @@
       <c r="V210" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="211" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W210" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>42</v>
       </c>
@@ -17005,7 +17487,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="212" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>22</v>
       </c>
@@ -17072,11 +17554,14 @@
       <c r="V212" t="s">
         <v>272</v>
       </c>
+      <c r="W212" t="s">
+        <v>453</v>
+      </c>
       <c r="X212" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="213" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>33</v>
       </c>
@@ -17143,8 +17628,11 @@
       <c r="V213" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="214" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W213" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>57</v>
       </c>
@@ -17211,8 +17699,11 @@
       <c r="V214" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="215" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W214" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>42</v>
       </c>
@@ -17357,7 +17848,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="217" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>186</v>
       </c>
@@ -17428,7 +17919,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="218" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>189</v>
       </c>
@@ -17495,8 +17986,11 @@
       <c r="V218" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="219" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W218" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>192</v>
       </c>
@@ -17563,11 +18057,14 @@
       <c r="V219" t="s">
         <v>274</v>
       </c>
+      <c r="W219" t="s">
+        <v>455</v>
+      </c>
       <c r="X219" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="220" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="220" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>22</v>
       </c>
@@ -17638,10 +18135,10 @@
         <v>348</v>
       </c>
       <c r="X220" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="221" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="221" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>33</v>
       </c>
@@ -17708,8 +18205,11 @@
       <c r="V221" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="222" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W221" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>57</v>
       </c>
@@ -17780,7 +18280,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="223" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>42</v>
       </c>
@@ -17846,6 +18346,9 @@
       </c>
       <c r="V223" t="s">
         <v>152</v>
+      </c>
+      <c r="W223" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="224" spans="1:24" x14ac:dyDescent="0.25">
@@ -17916,13 +18419,13 @@
         <v>247</v>
       </c>
       <c r="W224" t="s">
+        <v>445</v>
+      </c>
+      <c r="X224" t="s">
         <v>375</v>
       </c>
-      <c r="X224" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="225" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>186</v>
       </c>
@@ -17993,7 +18496,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="226" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>189</v>
       </c>
@@ -18060,8 +18563,11 @@
       <c r="V226" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="227" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W226" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>192</v>
       </c>
@@ -18132,10 +18638,10 @@
         <v>340</v>
       </c>
       <c r="X227" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="228" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>22</v>
       </c>
@@ -18209,7 +18715,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="229" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>33</v>
       </c>
@@ -18276,8 +18782,11 @@
       <c r="V229" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="230" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W229" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>57</v>
       </c>
@@ -18344,8 +18853,11 @@
       <c r="V230" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="231" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W230" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>42</v>
       </c>
@@ -18411,6 +18923,9 @@
       </c>
       <c r="V231" t="s">
         <v>126</v>
+      </c>
+      <c r="W231" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="232" spans="1:24" x14ac:dyDescent="0.25">
@@ -18480,11 +18995,14 @@
       <c r="V232" t="s">
         <v>254</v>
       </c>
+      <c r="W232" t="s">
+        <v>449</v>
+      </c>
       <c r="X232" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="233" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>186</v>
       </c>
@@ -18555,7 +19073,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="234" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>189</v>
       </c>
@@ -18622,8 +19140,11 @@
       <c r="V234" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="235" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W234" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>192</v>
       </c>
@@ -18690,8 +19211,11 @@
       <c r="V235" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="236" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W235" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>22</v>
       </c>
@@ -18765,7 +19289,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="237" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>33</v>
       </c>
@@ -18832,8 +19356,11 @@
       <c r="V237" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="238" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W237" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>57</v>
       </c>
@@ -18904,7 +19431,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="239" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>42</v>
       </c>
@@ -18975,7 +19502,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="240" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>22</v>
       </c>
@@ -19046,10 +19573,10 @@
         <v>348</v>
       </c>
       <c r="X240" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="241" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>33</v>
       </c>
@@ -19120,7 +19647,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="242" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>57</v>
       </c>
@@ -19187,8 +19714,11 @@
       <c r="V242" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="243" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W242" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>42</v>
       </c>
@@ -19333,7 +19863,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="245" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>186</v>
       </c>
@@ -19404,7 +19934,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="246" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>189</v>
       </c>
@@ -19471,8 +20001,11 @@
       <c r="V246" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="247" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W246" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>192</v>
       </c>
@@ -19539,11 +20072,14 @@
       <c r="V247" t="s">
         <v>202</v>
       </c>
+      <c r="W247" t="s">
+        <v>434</v>
+      </c>
       <c r="X247" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="248" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>22</v>
       </c>
@@ -19610,11 +20146,14 @@
       <c r="V248" t="s">
         <v>179</v>
       </c>
+      <c r="W248" t="s">
+        <v>427</v>
+      </c>
       <c r="X248" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="249" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>33</v>
       </c>
@@ -19681,8 +20220,11 @@
       <c r="V249" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="250" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W249" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>57</v>
       </c>
@@ -19749,8 +20291,11 @@
       <c r="V250" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="251" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W250" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>42</v>
       </c>
@@ -19816,6 +20361,9 @@
       </c>
       <c r="V251" t="s">
         <v>286</v>
+      </c>
+      <c r="W251" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="252" spans="1:24" x14ac:dyDescent="0.25">
@@ -19885,11 +20433,14 @@
       <c r="V252" t="s">
         <v>210</v>
       </c>
+      <c r="W252" t="s">
+        <v>430</v>
+      </c>
       <c r="X252" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="253" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>186</v>
       </c>
@@ -19960,7 +20511,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="254" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>189</v>
       </c>
@@ -20027,8 +20578,11 @@
       <c r="V254" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="255" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W254" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>192</v>
       </c>
@@ -20099,10 +20653,10 @@
         <v>323</v>
       </c>
       <c r="X255" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="256" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>22</v>
       </c>
@@ -20169,11 +20723,14 @@
       <c r="V256" t="s">
         <v>252</v>
       </c>
+      <c r="W256" t="s">
+        <v>448</v>
+      </c>
       <c r="X256" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="257" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="257" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>33</v>
       </c>
@@ -20240,8 +20797,11 @@
       <c r="V257" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="258" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W257" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="258" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>57</v>
       </c>
@@ -20312,7 +20872,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="259" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>42</v>
       </c>
@@ -20450,11 +21010,14 @@
       <c r="V260" t="s">
         <v>293</v>
       </c>
+      <c r="W260" t="s">
+        <v>461</v>
+      </c>
       <c r="X260" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="261" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>186</v>
       </c>
@@ -20521,8 +21084,11 @@
       <c r="V261" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="262" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W261" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="262" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>189</v>
       </c>
@@ -20589,8 +21155,11 @@
       <c r="V262" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="263" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W262" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="263" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>192</v>
       </c>
@@ -20657,11 +21226,14 @@
       <c r="V263" t="s">
         <v>296</v>
       </c>
+      <c r="W263" t="s">
+        <v>463</v>
+      </c>
       <c r="X263" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="264" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="264" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>22</v>
       </c>
@@ -20732,10 +21304,10 @@
         <v>324</v>
       </c>
       <c r="X264" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="265" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="265" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>33</v>
       </c>
@@ -20802,8 +21374,11 @@
       <c r="V265" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="266" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W265" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="266" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>57</v>
       </c>
@@ -20870,8 +21445,11 @@
       <c r="V266" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="267" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W266" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="267" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>42</v>
       </c>
@@ -20937,6 +21515,9 @@
       </c>
       <c r="V267" t="s">
         <v>126</v>
+      </c>
+      <c r="W267" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="268" spans="1:24" x14ac:dyDescent="0.25">
@@ -21007,13 +21588,13 @@
         <v>247</v>
       </c>
       <c r="W268" t="s">
+        <v>445</v>
+      </c>
+      <c r="X268" t="s">
         <v>375</v>
       </c>
-      <c r="X268" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="269" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>186</v>
       </c>
@@ -21084,7 +21665,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="270" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>189</v>
       </c>
@@ -21151,8 +21732,11 @@
       <c r="V270" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="271" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W270" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="271" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>192</v>
       </c>
@@ -21223,10 +21807,10 @@
         <v>323</v>
       </c>
       <c r="X271" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="272" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="272" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>22</v>
       </c>
@@ -21297,10 +21881,10 @@
         <v>348</v>
       </c>
       <c r="X272" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="273" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>33</v>
       </c>
@@ -21367,8 +21951,11 @@
       <c r="V273" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="274" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W273" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="274" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>57</v>
       </c>
@@ -21435,8 +22022,11 @@
       <c r="V274" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="275" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W274" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="275" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>42</v>
       </c>
@@ -21574,11 +22164,14 @@
       <c r="V276" t="s">
         <v>210</v>
       </c>
+      <c r="W276" t="s">
+        <v>430</v>
+      </c>
       <c r="X276" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="277" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>186</v>
       </c>
@@ -21645,8 +22238,11 @@
       <c r="V277" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="278" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W277" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="278" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>189</v>
       </c>
@@ -21713,8 +22309,11 @@
       <c r="V278" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="279" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W278" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="279" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>192</v>
       </c>
@@ -21785,10 +22384,10 @@
         <v>327</v>
       </c>
       <c r="X279" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="280" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="280" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>22</v>
       </c>
@@ -21855,11 +22454,14 @@
       <c r="V280" t="s">
         <v>252</v>
       </c>
+      <c r="W280" t="s">
+        <v>448</v>
+      </c>
       <c r="X280" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="281" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="281" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>33</v>
       </c>
@@ -21926,8 +22528,11 @@
       <c r="V281" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="282" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W281" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="282" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>57</v>
       </c>
@@ -21994,8 +22599,11 @@
       <c r="V282" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="283" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W282" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="283" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>42</v>
       </c>
@@ -22140,7 +22748,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="285" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>186</v>
       </c>
@@ -22211,7 +22819,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="286" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>189</v>
       </c>
@@ -22278,8 +22886,11 @@
       <c r="V286" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="287" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W286" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="287" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>192</v>
       </c>
@@ -22346,11 +22957,14 @@
       <c r="V287" t="s">
         <v>301</v>
       </c>
+      <c r="W287" t="s">
+        <v>465</v>
+      </c>
       <c r="X287" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="288" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="288" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>22</v>
       </c>
@@ -22421,10 +23035,10 @@
         <v>331</v>
       </c>
       <c r="X288" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="289" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="289" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>33</v>
       </c>
@@ -22491,11 +23105,14 @@
       <c r="V289" t="s">
         <v>110</v>
       </c>
+      <c r="W289" t="s">
+        <v>405</v>
+      </c>
       <c r="X289" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="290" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="290" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>57</v>
       </c>
@@ -22566,7 +23183,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="291" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>22</v>
       </c>
@@ -22637,10 +23254,10 @@
         <v>324</v>
       </c>
       <c r="X291" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="292" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="292" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>33</v>
       </c>
@@ -22707,8 +23324,11 @@
       <c r="V292" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="293" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W292" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="293" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>57</v>
       </c>
@@ -22775,8 +23395,11 @@
       <c r="V293" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="294" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W293" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="294" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>42</v>
       </c>
@@ -22921,7 +23544,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="296" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>186</v>
       </c>
@@ -22992,7 +23615,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="297" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>189</v>
       </c>
@@ -23059,8 +23682,11 @@
       <c r="V297" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="298" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W297" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="298" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>192</v>
       </c>
@@ -23127,11 +23753,14 @@
       <c r="V298" t="s">
         <v>305</v>
       </c>
+      <c r="W298" t="s">
+        <v>466</v>
+      </c>
       <c r="X298" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="299" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="299" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>22</v>
       </c>
@@ -23202,10 +23831,10 @@
         <v>348</v>
       </c>
       <c r="X299" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="300" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="300" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>33</v>
       </c>
@@ -23276,7 +23905,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="301" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>57</v>
       </c>
@@ -23343,8 +23972,11 @@
       <c r="V301" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="302" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W301" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="302" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>42</v>
       </c>
@@ -23410,6 +24042,9 @@
       </c>
       <c r="V302" t="s">
         <v>113</v>
+      </c>
+      <c r="W302" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="303" spans="1:24" x14ac:dyDescent="0.25">
@@ -23486,7 +24121,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="304" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>186</v>
       </c>
@@ -23557,7 +24192,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="305" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>189</v>
       </c>
@@ -23628,7 +24263,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="306" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>192</v>
       </c>
@@ -23699,10 +24334,10 @@
         <v>323</v>
       </c>
       <c r="X306" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="307" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="307" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>22</v>
       </c>
@@ -23776,7 +24411,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="308" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>33</v>
       </c>
@@ -23843,8 +24478,11 @@
       <c r="V308" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="309" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W308" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="309" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>57</v>
       </c>
@@ -23915,7 +24553,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="310" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>42</v>
       </c>
@@ -23981,6 +24619,9 @@
       </c>
       <c r="V310" t="s">
         <v>113</v>
+      </c>
+      <c r="W310" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="311" spans="1:24" x14ac:dyDescent="0.25">
@@ -24050,11 +24691,14 @@
       <c r="V311" t="s">
         <v>188</v>
       </c>
+      <c r="W311" t="s">
+        <v>431</v>
+      </c>
       <c r="X311" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="312" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>186</v>
       </c>
@@ -24125,7 +24769,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="313" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>189</v>
       </c>
@@ -24192,8 +24836,11 @@
       <c r="V313" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="314" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W313" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="314" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>192</v>
       </c>
@@ -24260,11 +24907,14 @@
       <c r="V314" t="s">
         <v>202</v>
       </c>
+      <c r="W314" t="s">
+        <v>434</v>
+      </c>
       <c r="X314" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="315" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="315" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>22</v>
       </c>
@@ -24335,10 +24985,10 @@
         <v>348</v>
       </c>
       <c r="X315" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="316" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="316" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>33</v>
       </c>
@@ -24405,8 +25055,11 @@
       <c r="V316" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="317" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W316" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="317" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>57</v>
       </c>
@@ -24477,7 +25130,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="318" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>42</v>
       </c>
@@ -24548,7 +25201,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="319" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>22</v>
       </c>
@@ -24619,10 +25272,10 @@
         <v>324</v>
       </c>
       <c r="X319" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="320" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="320" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>33</v>
       </c>
@@ -24689,8 +25342,11 @@
       <c r="V320" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="321" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W320" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="321" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>57</v>
       </c>
@@ -24761,7 +25417,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="322" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>42</v>
       </c>
@@ -24899,11 +25555,14 @@
       <c r="V323" t="s">
         <v>210</v>
       </c>
+      <c r="W323" t="s">
+        <v>430</v>
+      </c>
       <c r="X323" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="324" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>186</v>
       </c>
@@ -24974,7 +25633,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="325" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>189</v>
       </c>
@@ -25041,8 +25700,11 @@
       <c r="V325" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="326" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W325" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="326" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>192</v>
       </c>
@@ -25109,11 +25771,14 @@
       <c r="V326" t="s">
         <v>202</v>
       </c>
+      <c r="W326" t="s">
+        <v>434</v>
+      </c>
       <c r="X326" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="327" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="327" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>22</v>
       </c>
@@ -25187,7 +25852,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="328" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>33</v>
       </c>
@@ -25254,8 +25919,11 @@
       <c r="V328" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="329" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W328" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="329" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>57</v>
       </c>
@@ -25322,8 +25990,11 @@
       <c r="V329" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="330" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W329" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="330" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>42</v>
       </c>
@@ -25462,13 +26133,13 @@
         <v>247</v>
       </c>
       <c r="W331" t="s">
+        <v>445</v>
+      </c>
+      <c r="X331" t="s">
         <v>375</v>
       </c>
-      <c r="X331" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="332" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>186</v>
       </c>
@@ -25539,7 +26210,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="333" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>189</v>
       </c>
@@ -25606,8 +26277,11 @@
       <c r="V333" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="334" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W333" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="334" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>192</v>
       </c>
@@ -25678,10 +26352,10 @@
         <v>323</v>
       </c>
       <c r="X334" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="335" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="335" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>22</v>
       </c>
@@ -25752,10 +26426,10 @@
         <v>348</v>
       </c>
       <c r="X335" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="336" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="336" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>33</v>
       </c>
@@ -25826,7 +26500,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="337" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>57</v>
       </c>
@@ -25893,8 +26567,11 @@
       <c r="V337" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="338" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W337" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="338" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>42</v>
       </c>
@@ -25960,6 +26637,9 @@
       </c>
       <c r="V338" t="s">
         <v>113</v>
+      </c>
+      <c r="W338" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="339" spans="1:24" x14ac:dyDescent="0.25">
@@ -26036,7 +26716,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="340" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>186</v>
       </c>
@@ -26107,7 +26787,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="341" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>189</v>
       </c>
@@ -26178,7 +26858,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="342" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>192</v>
       </c>
@@ -26245,11 +26925,14 @@
       <c r="V342" t="s">
         <v>296</v>
       </c>
+      <c r="W342" t="s">
+        <v>463</v>
+      </c>
       <c r="X342" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="343" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="343" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>22</v>
       </c>
@@ -26320,10 +27003,10 @@
         <v>324</v>
       </c>
       <c r="X343" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="344" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="344" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>57</v>
       </c>
@@ -26390,8 +27073,11 @@
       <c r="V344" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="345" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W344" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="345" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>42</v>
       </c>
@@ -26530,13 +27216,13 @@
         <v>226</v>
       </c>
       <c r="W346" t="s">
-        <v>378</v>
+        <v>438</v>
       </c>
       <c r="X346" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="347" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="347" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>186</v>
       </c>
@@ -26607,7 +27293,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="348" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>189</v>
       </c>
@@ -26674,8 +27360,11 @@
       <c r="V348" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="349" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W348" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="349" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>192</v>
       </c>
@@ -26746,10 +27435,10 @@
         <v>315</v>
       </c>
       <c r="X349" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="350" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="350" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>22</v>
       </c>
@@ -26820,10 +27509,10 @@
         <v>348</v>
       </c>
       <c r="X350" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="351" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="351" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>33</v>
       </c>
@@ -26890,8 +27579,11 @@
       <c r="V351" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="352" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W351" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="352" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>57</v>
       </c>
@@ -26962,7 +27654,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="353" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>42</v>
       </c>
@@ -27100,11 +27792,14 @@
       <c r="V354" t="s">
         <v>307</v>
       </c>
+      <c r="W354" t="s">
+        <v>467</v>
+      </c>
       <c r="X354" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="355" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>186</v>
       </c>
@@ -27175,7 +27870,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="356" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>189</v>
       </c>
@@ -27242,8 +27937,11 @@
       <c r="V356" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="357" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W356" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="357" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>192</v>
       </c>
@@ -27310,11 +28008,14 @@
       <c r="V357" t="s">
         <v>202</v>
       </c>
+      <c r="W357" t="s">
+        <v>434</v>
+      </c>
       <c r="X357" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="358" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="358" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>22</v>
       </c>
@@ -27388,7 +28089,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="359" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>33</v>
       </c>
@@ -27455,8 +28156,11 @@
       <c r="V359" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="360" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W359" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="360" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>57</v>
       </c>
@@ -27523,8 +28227,11 @@
       <c r="V360" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="361" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W360" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="361" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>42</v>
       </c>
@@ -27669,7 +28376,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="363" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>186</v>
       </c>
@@ -27740,7 +28447,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="364" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>189</v>
       </c>
@@ -27807,8 +28514,11 @@
       <c r="V364" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="365" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W364" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="365" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>192</v>
       </c>
@@ -27875,11 +28585,14 @@
       <c r="V365" t="s">
         <v>296</v>
       </c>
+      <c r="W365" t="s">
+        <v>463</v>
+      </c>
       <c r="X365" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="366" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="366" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>22</v>
       </c>
@@ -27946,11 +28659,14 @@
       <c r="V366" t="s">
         <v>252</v>
       </c>
+      <c r="W366" t="s">
+        <v>448</v>
+      </c>
       <c r="X366" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="367" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="367" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>33</v>
       </c>
@@ -28021,7 +28737,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="368" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>57</v>
       </c>
@@ -28088,8 +28804,11 @@
       <c r="V368" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="369" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W368" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="369" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>42</v>
       </c>
@@ -28160,7 +28879,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="370" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>186</v>
       </c>
@@ -28231,7 +28950,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="371" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>189</v>
       </c>
@@ -28298,8 +29017,11 @@
       <c r="V371" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="372" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W371" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="372" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>192</v>
       </c>
@@ -28366,11 +29088,14 @@
       <c r="V372" t="s">
         <v>202</v>
       </c>
+      <c r="W372" t="s">
+        <v>434</v>
+      </c>
       <c r="X372" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="373" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="373" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>57</v>
       </c>
@@ -28437,8 +29162,11 @@
       <c r="V373" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="374" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W373" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="374" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>42</v>
       </c>
@@ -28583,7 +29311,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="376" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>186</v>
       </c>
@@ -28654,7 +29382,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="377" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>189</v>
       </c>
@@ -28721,8 +29449,11 @@
       <c r="V377" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="378" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W377" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="378" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>192</v>
       </c>
@@ -28793,10 +29524,10 @@
         <v>315</v>
       </c>
       <c r="X378" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="379" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="379" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>22</v>
       </c>
@@ -28870,7 +29601,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="380" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>33</v>
       </c>
@@ -28937,8 +29668,11 @@
       <c r="V380" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="381" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W380" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="381" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>57</v>
       </c>
@@ -29005,8 +29739,11 @@
       <c r="V381" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="382" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W381" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="382" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>42</v>
       </c>
@@ -29151,7 +29888,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="384" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>186</v>
       </c>
@@ -29222,7 +29959,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="385" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>189</v>
       </c>
@@ -29289,8 +30026,11 @@
       <c r="V385" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="386" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W385" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="386" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>192</v>
       </c>
@@ -29357,11 +30097,14 @@
       <c r="V386" t="s">
         <v>305</v>
       </c>
+      <c r="W386" t="s">
+        <v>466</v>
+      </c>
       <c r="X386" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="387" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="387" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>22</v>
       </c>
@@ -29428,11 +30171,14 @@
       <c r="V387" t="s">
         <v>252</v>
       </c>
+      <c r="W387" t="s">
+        <v>448</v>
+      </c>
       <c r="X387" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="388" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="388" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>33</v>
       </c>
@@ -29499,8 +30245,11 @@
       <c r="V388" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="389" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W388" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="389" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>57</v>
       </c>
@@ -29571,7 +30320,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="390" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>42</v>
       </c>
@@ -29642,7 +30391,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="391" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>42</v>
       </c>
@@ -29713,7 +30462,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="392" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>186</v>
       </c>
@@ -29784,7 +30533,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="393" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>189</v>
       </c>
@@ -29851,8 +30600,11 @@
       <c r="V393" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="394" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W393" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="394" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>192</v>
       </c>
@@ -29919,11 +30671,14 @@
       <c r="V394" t="s">
         <v>301</v>
       </c>
+      <c r="W394" t="s">
+        <v>465</v>
+      </c>
       <c r="X394" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="395" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="395" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>186</v>
       </c>
@@ -29994,7 +30749,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="396" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>189</v>
       </c>
@@ -30061,8 +30816,11 @@
       <c r="V396" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="397" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W396" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="397" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>192</v>
       </c>
@@ -30133,10 +30891,10 @@
         <v>340</v>
       </c>
       <c r="X397" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="398" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="398" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>57</v>
       </c>
@@ -30203,8 +30961,11 @@
       <c r="V398" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="399" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W398" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="399" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>42</v>
       </c>
@@ -30275,7 +31036,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="400" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>189</v>
       </c>
@@ -30342,8 +31103,11 @@
       <c r="V400" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="401" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W400" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="401" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>192</v>
       </c>
@@ -30410,11 +31174,14 @@
       <c r="V401" t="s">
         <v>202</v>
       </c>
+      <c r="W401" t="s">
+        <v>434</v>
+      </c>
       <c r="X401" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="402" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="402" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>22</v>
       </c>
@@ -30481,11 +31248,14 @@
       <c r="V402" t="s">
         <v>312</v>
       </c>
+      <c r="W402" t="s">
+        <v>469</v>
+      </c>
       <c r="X402" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="403" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>33</v>
       </c>
@@ -30556,7 +31326,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="404" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>57</v>
       </c>
@@ -30623,8 +31393,11 @@
       <c r="V404" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="405" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W404" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="405" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>42</v>
       </c>
@@ -30695,7 +31468,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="406" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>42</v>
       </c>
@@ -30766,7 +31539,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="407" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>186</v>
       </c>
@@ -30837,7 +31610,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="408" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>189</v>
       </c>
@@ -30904,8 +31677,11 @@
       <c r="V408" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="409" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W408" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="409" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>192</v>
       </c>
@@ -30972,11 +31748,14 @@
       <c r="V409" t="s">
         <v>202</v>
       </c>
+      <c r="W409" t="s">
+        <v>434</v>
+      </c>
       <c r="X409" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="410" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="410" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>42</v>
       </c>
@@ -31047,7 +31826,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="411" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>186</v>
       </c>
@@ -31118,7 +31897,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="412" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>189</v>
       </c>
@@ -31185,8 +31964,11 @@
       <c r="V412" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="413" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W412" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="413" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>192</v>
       </c>
@@ -31253,11 +32035,14 @@
       <c r="V413" t="s">
         <v>313</v>
       </c>
+      <c r="W413" t="s">
+        <v>470</v>
+      </c>
       <c r="X413" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="414" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="414" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>189</v>
       </c>
@@ -31324,8 +32109,11 @@
       <c r="V414" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="415" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W414" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="415" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>192</v>
       </c>
@@ -31392,11 +32180,14 @@
       <c r="V415" t="s">
         <v>305</v>
       </c>
+      <c r="W415" t="s">
+        <v>466</v>
+      </c>
       <c r="X415" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="416" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="416" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>186</v>
       </c>
@@ -31467,7 +32258,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="417" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>186</v>
       </c>
@@ -31538,7 +32329,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="418" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>22</v>
       </c>
@@ -31609,10 +32400,10 @@
         <v>348</v>
       </c>
       <c r="X418" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="419" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="419" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>22</v>
       </c>
@@ -31683,10 +32474,10 @@
         <v>348</v>
       </c>
       <c r="X419" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="420" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="420" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>33</v>
       </c>
@@ -31753,8 +32544,11 @@
       <c r="V420" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="421" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W420" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="421" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>57</v>
       </c>
@@ -31821,8 +32615,11 @@
       <c r="V421" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="422" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W421" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="422" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>57</v>
       </c>
@@ -31889,8 +32686,11 @@
       <c r="V422" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="423" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W422" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="423" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>22</v>
       </c>
@@ -31961,10 +32761,10 @@
         <v>348</v>
       </c>
       <c r="X423" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="424" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="424" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>33</v>
       </c>
@@ -32035,7 +32835,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="425" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>42</v>
       </c>
@@ -32106,7 +32906,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="426" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>22</v>
       </c>
@@ -32177,10 +32977,10 @@
         <v>338</v>
       </c>
       <c r="X426" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="427" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="427" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>33</v>
       </c>
@@ -32251,7 +33051,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="428" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>57</v>
       </c>
@@ -32322,7 +33122,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="429" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>22</v>
       </c>
@@ -32393,10 +33193,10 @@
         <v>332</v>
       </c>
       <c r="X429" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="430" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="430" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>33</v>
       </c>
@@ -32463,8 +33263,11 @@
       <c r="V430" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="431" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W430" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="431" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>22</v>
       </c>
@@ -32538,7 +33341,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="432" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>42</v>
       </c>
@@ -32680,17 +33483,11 @@
         <v>374</v>
       </c>
       <c r="X433" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W433" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Rabbit"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:W433" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/cleaned_animal_disease_prediction.xlsx
+++ b/cleaned_animal_disease_prediction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abbey\Documents\finalyear_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30141ADF-7141-41E2-85EE-5AEDC7B0145D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2CD708-33AB-4CD6-A452-CB47881CD66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8812" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8883" uniqueCount="492">
   <si>
     <t>species</t>
   </si>
@@ -1213,9 +1213,6 @@
     <t>Learn more</t>
   </si>
   <si>
-    <t>Swine flu, or H1N1 influenza, is a respiratory disease of pigs caused by type A influenza viruses</t>
-  </si>
-  <si>
     <t>Swine flu, is a respiratory disease of pigs caused by type A influenza viruses</t>
   </si>
   <si>
@@ -1436,6 +1433,72 @@
   </si>
   <si>
     <t>Vaccination, antibiotics for secondary infections, improve husbandry.</t>
+  </si>
+  <si>
+    <t>Conjunctivitis is the inflammation of the conjunctiva (the thin membrane covering the eye and inner eyelids).</t>
+  </si>
+  <si>
+    <t>Feline asthma is a chronic inflammatory airway disease in cats, similar to human asthma. It involves bronchoconstriction (narrowing of the airways) and excessive mucus production, leading to breathing difficulties.</t>
+  </si>
+  <si>
+    <t>Feline calicivirus is a highly contagious respiratory infection in cats, caused by a virus of the Caliciviridae family.</t>
+  </si>
+  <si>
+    <t>Feline chlamydia is a bacterial infection caused by Chlamydia felis. It primarily affects the eyes and upper respiratory tract in cats.</t>
+  </si>
+  <si>
+    <t>Feline coronavirus is a common viral infection in cats, primarily affecting the intestinal tract.</t>
+  </si>
+  <si>
+    <t>Feline herpesvirus, also called feline viral rhinotracheitis (FVR), is a highly contagious and lifelong viral infection caused by Feline Alphaherpesvirus 1. It primarily targets the respiratory tract, eyes, and nasal passages, often leading to chronic or recurrent symptoms.</t>
+  </si>
+  <si>
+    <t>FIV is a lentivirus (similar to HIV in humans) that weakens a cat's immune system over time, making them susceptible to secondary infections. It is not zoonotic (cannot spread to humans).</t>
+  </si>
+  <si>
+    <t>FIP is a fatal, immune-mediated disease caused by a mutation of the feline coronavirus (FCoV). </t>
+  </si>
+  <si>
+    <t>FeLV is a retrovirus that weakens a cat's immune system, making them susceptible to infections, anemia, and cancer (e.g., lymphoma). It is one of the most common and serious infectious diseases in cats.</t>
+  </si>
+  <si>
+    <t>Feline panleukopenia, also known as feline distemper, is a highly contagious and often fatal viral disease caused by the Feline Parvovirus.</t>
+  </si>
+  <si>
+    <t>Feline renal disease, commonly referred to as chronic kidney disease (CKD), is a progressive condition where the kidneys lose their ability to filter waste from the blood effectively.</t>
+  </si>
+  <si>
+    <t>FRDC is a common, highly contagious syndrome affecting the upper respiratory tract of cats, caused by multiple pathogens.</t>
+  </si>
+  <si>
+    <t>Feline respiratory infections are common, highly contagious illnesses affecting a cat's nose, throat, and sinuses.</t>
+  </si>
+  <si>
+    <t>Feline URI is a common, contagious illness affecting the nose, throat, and sinuses of cats.</t>
+  </si>
+  <si>
+    <t>Feline Viral Rhinotracheitis is a highly contagious upper respiratory infection caused by Feline Herpesvirus-1 (FHV-1).</t>
+  </si>
+  <si>
+    <t>Fungal infections in cats are caused by pathogenic fungi that invade the skin, respiratory system, or internal organs. </t>
+  </si>
+  <si>
+    <t>Gastroenteritis refers to inflammation of the stomach and intestines, leading to digestive upset.</t>
+  </si>
+  <si>
+    <t>Hyperthyroidism is a common endocrine disorder in older cats (typically 10+ years) caused by overactive thyroid glands, leading to excessive production of thyroid hormones (T3/T4).</t>
+  </si>
+  <si>
+    <t>Inflammatory Bowel Disease (IBD) is a chronic gastrointestinal disorder characterized by persistent inflammation of the intestinal lining, leading to impaired nutrient absorption and digestive dysfunction.</t>
+  </si>
+  <si>
+    <t>Intestinal parasites are internal worms or protozoa that infect a cat’s digestive tract, leading to malnutrition, diarrhea, and other health issues.</t>
+  </si>
+  <si>
+    <t>Pancreatitis is the inflammation of the pancreas, an organ responsible for producing digestive enzymes and insulin.</t>
+  </si>
+  <si>
+    <t>Ringworm (dermatophytosis) is a fungal infection of the skin, hair, or claws—not caused by a worm.</t>
   </si>
 </sst>
 </file>
@@ -2286,14 +2349,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="22" max="22" width="55.85546875" customWidth="1"/>
-    <col min="23" max="23" width="70.85546875" customWidth="1"/>
+    <col min="23" max="23" width="143.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -2514,6 +2577,9 @@
       <c r="W3" t="s">
         <v>336</v>
       </c>
+      <c r="X3" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2730,6 +2796,9 @@
       <c r="W6" t="s">
         <v>349</v>
       </c>
+      <c r="X6" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2944,7 +3013,10 @@
         <v>68</v>
       </c>
       <c r="W9" t="s">
-        <v>401</v>
+        <v>400</v>
+      </c>
+      <c r="X9" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -3162,6 +3234,9 @@
       <c r="W12" t="s">
         <v>318</v>
       </c>
+      <c r="X12" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3307,6 +3382,9 @@
       <c r="W14" t="s">
         <v>318</v>
       </c>
+      <c r="X14" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3594,6 +3672,9 @@
       <c r="W18" t="s">
         <v>333</v>
       </c>
+      <c r="X18" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -3810,6 +3891,9 @@
       <c r="W21" t="s">
         <v>336</v>
       </c>
+      <c r="X21" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4097,6 +4181,9 @@
       <c r="W25" t="s">
         <v>318</v>
       </c>
+      <c r="X25" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4237,7 +4324,7 @@
         <v>104</v>
       </c>
       <c r="W27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="X27" t="s">
         <v>352</v>
@@ -4311,7 +4398,10 @@
         <v>106</v>
       </c>
       <c r="W28" t="s">
-        <v>403</v>
+        <v>402</v>
+      </c>
+      <c r="X28" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
@@ -4382,7 +4472,7 @@
         <v>108</v>
       </c>
       <c r="W29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -4527,7 +4617,10 @@
         <v>110</v>
       </c>
       <c r="W31" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="X31" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
@@ -4743,7 +4836,10 @@
         <v>111</v>
       </c>
       <c r="W34" t="s">
-        <v>406</v>
+        <v>405</v>
+      </c>
+      <c r="X34" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
@@ -4814,7 +4910,7 @@
         <v>112</v>
       </c>
       <c r="W35" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
@@ -4885,7 +4981,7 @@
         <v>113</v>
       </c>
       <c r="W36" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
@@ -5032,6 +5128,9 @@
       <c r="W38" t="s">
         <v>344</v>
       </c>
+      <c r="X38" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -5101,7 +5200,7 @@
         <v>116</v>
       </c>
       <c r="W39" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
@@ -5243,7 +5342,7 @@
         <v>119</v>
       </c>
       <c r="W41" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X41" t="s">
         <v>380</v>
@@ -5319,6 +5418,9 @@
       <c r="W42" t="s">
         <v>336</v>
       </c>
+      <c r="X42" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -5464,6 +5566,9 @@
       <c r="W44" t="s">
         <v>336</v>
       </c>
+      <c r="X44" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -5749,7 +5854,10 @@
         <v>106</v>
       </c>
       <c r="W48" t="s">
-        <v>403</v>
+        <v>402</v>
+      </c>
+      <c r="X48" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
@@ -5820,7 +5928,7 @@
         <v>125</v>
       </c>
       <c r="W49" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
@@ -5891,7 +5999,7 @@
         <v>126</v>
       </c>
       <c r="W50" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
@@ -6036,7 +6144,10 @@
         <v>129</v>
       </c>
       <c r="W52" t="s">
-        <v>413</v>
+        <v>412</v>
+      </c>
+      <c r="X52" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
@@ -6323,7 +6434,10 @@
         <v>133</v>
       </c>
       <c r="W56" t="s">
-        <v>414</v>
+        <v>413</v>
+      </c>
+      <c r="X56" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
@@ -6465,7 +6579,7 @@
         <v>136</v>
       </c>
       <c r="W58" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
@@ -6610,7 +6724,10 @@
         <v>140</v>
       </c>
       <c r="W60" t="s">
-        <v>416</v>
+        <v>415</v>
+      </c>
+      <c r="X60" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
@@ -6752,7 +6869,7 @@
         <v>144</v>
       </c>
       <c r="W62" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
@@ -6823,7 +6940,7 @@
         <v>145</v>
       </c>
       <c r="W63" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="X63" t="s">
         <v>353</v>
@@ -6899,6 +7016,9 @@
       <c r="W64" t="s">
         <v>338</v>
       </c>
+      <c r="X64" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -6968,7 +7088,7 @@
         <v>147</v>
       </c>
       <c r="W65" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
@@ -7184,7 +7304,10 @@
         <v>150</v>
       </c>
       <c r="W68" t="s">
-        <v>420</v>
+        <v>419</v>
+      </c>
+      <c r="X68" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
@@ -7326,7 +7449,7 @@
         <v>152</v>
       </c>
       <c r="W70" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
@@ -7471,7 +7594,10 @@
         <v>154</v>
       </c>
       <c r="W72" t="s">
-        <v>422</v>
+        <v>421</v>
+      </c>
+      <c r="X72" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
@@ -7616,7 +7742,10 @@
         <v>106</v>
       </c>
       <c r="W74" t="s">
-        <v>403</v>
+        <v>402</v>
+      </c>
+      <c r="X74" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
@@ -7905,6 +8034,9 @@
       <c r="W78" t="s">
         <v>318</v>
       </c>
+      <c r="X78" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -8045,7 +8177,7 @@
         <v>113</v>
       </c>
       <c r="W80" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
@@ -8190,7 +8322,10 @@
         <v>133</v>
       </c>
       <c r="W82" t="s">
-        <v>414</v>
+        <v>413</v>
+      </c>
+      <c r="X82" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
@@ -8403,7 +8538,7 @@
         <v>165</v>
       </c>
       <c r="W85" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="X85" t="s">
         <v>377</v>
@@ -8477,7 +8612,10 @@
         <v>129</v>
       </c>
       <c r="W86" t="s">
-        <v>413</v>
+        <v>412</v>
+      </c>
+      <c r="X86" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
@@ -8548,7 +8686,7 @@
         <v>125</v>
       </c>
       <c r="W87" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.25">
@@ -8619,7 +8757,7 @@
         <v>168</v>
       </c>
       <c r="W88" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
@@ -8764,7 +8902,10 @@
         <v>106</v>
       </c>
       <c r="W90" t="s">
-        <v>403</v>
+        <v>402</v>
+      </c>
+      <c r="X90" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
@@ -8835,7 +8976,7 @@
         <v>171</v>
       </c>
       <c r="W91" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
@@ -8977,7 +9118,7 @@
         <v>129</v>
       </c>
       <c r="W93" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="X93" t="s">
         <v>384</v>
@@ -9051,7 +9192,10 @@
         <v>175</v>
       </c>
       <c r="W94" t="s">
-        <v>426</v>
+        <v>425</v>
+      </c>
+      <c r="X94" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
@@ -9264,7 +9408,7 @@
         <v>179</v>
       </c>
       <c r="W97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="X97" t="s">
         <v>366</v>
@@ -9340,6 +9484,9 @@
       <c r="W98" t="s">
         <v>336</v>
       </c>
+      <c r="X98" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -9409,7 +9556,7 @@
         <v>180</v>
       </c>
       <c r="W99" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
@@ -9480,7 +9627,7 @@
         <v>181</v>
       </c>
       <c r="W100" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
@@ -9625,7 +9772,10 @@
         <v>133</v>
       </c>
       <c r="W102" t="s">
-        <v>414</v>
+        <v>413</v>
+      </c>
+      <c r="X102" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.25">
@@ -9772,6 +9922,9 @@
       <c r="W104" t="s">
         <v>336</v>
       </c>
+      <c r="X104" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -9912,7 +10065,7 @@
         <v>113</v>
       </c>
       <c r="W106" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.25">
@@ -9983,7 +10136,7 @@
         <v>185</v>
       </c>
       <c r="W107" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="X107" t="s">
         <v>362</v>
@@ -10057,7 +10210,7 @@
         <v>188</v>
       </c>
       <c r="W108" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
@@ -10347,7 +10500,10 @@
         <v>133</v>
       </c>
       <c r="W112" t="s">
-        <v>414</v>
+        <v>413</v>
+      </c>
+      <c r="X112" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.25">
@@ -10560,7 +10716,7 @@
         <v>196</v>
       </c>
       <c r="W115" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="X115" t="s">
         <v>354</v>
@@ -10705,7 +10861,7 @@
         <v>200</v>
       </c>
       <c r="W117" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.25">
@@ -10776,7 +10932,7 @@
         <v>202</v>
       </c>
       <c r="W118" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X118" t="s">
         <v>394</v>
@@ -10850,7 +11006,7 @@
         <v>129</v>
       </c>
       <c r="W119" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="X119" t="s">
         <v>384</v>
@@ -10924,7 +11080,10 @@
         <v>154</v>
       </c>
       <c r="W120" t="s">
-        <v>422</v>
+        <v>421</v>
+      </c>
+      <c r="X120" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.25">
@@ -10995,7 +11154,7 @@
         <v>206</v>
       </c>
       <c r="W121" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.25">
@@ -11066,7 +11225,7 @@
         <v>113</v>
       </c>
       <c r="W122" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.25">
@@ -11137,7 +11296,7 @@
         <v>208</v>
       </c>
       <c r="W123" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="X123" t="s">
         <v>355</v>
@@ -11211,7 +11370,7 @@
         <v>210</v>
       </c>
       <c r="W124" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.25">
@@ -11427,7 +11586,10 @@
         <v>213</v>
       </c>
       <c r="W127" t="s">
-        <v>437</v>
+        <v>436</v>
+      </c>
+      <c r="X127" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.25">
@@ -11930,7 +12092,7 @@
         <v>179</v>
       </c>
       <c r="W134" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="X134" t="s">
         <v>366</v>
@@ -12004,7 +12166,10 @@
         <v>154</v>
       </c>
       <c r="W135" t="s">
-        <v>422</v>
+        <v>421</v>
+      </c>
+      <c r="X135" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.25">
@@ -12075,7 +12240,7 @@
         <v>125</v>
       </c>
       <c r="W136" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.25">
@@ -12217,7 +12382,7 @@
         <v>226</v>
       </c>
       <c r="W138" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="X138" t="s">
         <v>376</v>
@@ -12362,7 +12527,7 @@
         <v>229</v>
       </c>
       <c r="W140" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="141" spans="1:24" x14ac:dyDescent="0.25">
@@ -12581,7 +12746,10 @@
         <v>232</v>
       </c>
       <c r="W143" t="s">
-        <v>440</v>
+        <v>439</v>
+      </c>
+      <c r="X143" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.25">
@@ -12652,7 +12820,7 @@
         <v>206</v>
       </c>
       <c r="W144" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.25">
@@ -12794,7 +12962,7 @@
         <v>185</v>
       </c>
       <c r="W146" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="X146" t="s">
         <v>363</v>
@@ -12868,7 +13036,7 @@
         <v>236</v>
       </c>
       <c r="W147" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="148" spans="1:24" x14ac:dyDescent="0.25">
@@ -12939,7 +13107,7 @@
         <v>238</v>
       </c>
       <c r="W148" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.25">
@@ -13158,7 +13326,10 @@
         <v>111</v>
       </c>
       <c r="W151" t="s">
-        <v>406</v>
+        <v>405</v>
+      </c>
+      <c r="X151" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.25">
@@ -13229,7 +13400,7 @@
         <v>240</v>
       </c>
       <c r="W152" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.25">
@@ -13300,7 +13471,7 @@
         <v>113</v>
       </c>
       <c r="W153" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="154" spans="1:24" x14ac:dyDescent="0.25">
@@ -13371,7 +13542,7 @@
         <v>210</v>
       </c>
       <c r="W154" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="X154" t="s">
         <v>356</v>
@@ -13519,7 +13690,10 @@
         <v>133</v>
       </c>
       <c r="W156" t="s">
-        <v>414</v>
+        <v>413</v>
+      </c>
+      <c r="X156" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.25">
@@ -13877,7 +14051,7 @@
         <v>200</v>
       </c>
       <c r="W161" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="162" spans="1:24" x14ac:dyDescent="0.25">
@@ -13948,7 +14122,7 @@
         <v>202</v>
       </c>
       <c r="W162" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X162" t="s">
         <v>394</v>
@@ -14096,7 +14270,10 @@
         <v>110</v>
       </c>
       <c r="W164" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="X164" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="165" spans="1:24" x14ac:dyDescent="0.25">
@@ -14167,7 +14344,7 @@
         <v>125</v>
       </c>
       <c r="W165" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="166" spans="1:24" x14ac:dyDescent="0.25">
@@ -14309,7 +14486,7 @@
         <v>247</v>
       </c>
       <c r="W167" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="X167" t="s">
         <v>375</v>
@@ -14383,7 +14560,7 @@
         <v>248</v>
       </c>
       <c r="W168" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="169" spans="1:24" x14ac:dyDescent="0.25">
@@ -14454,7 +14631,7 @@
         <v>249</v>
       </c>
       <c r="W169" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="170" spans="1:24" x14ac:dyDescent="0.25">
@@ -14599,7 +14776,7 @@
         <v>252</v>
       </c>
       <c r="W171" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="X171" t="s">
         <v>378</v>
@@ -14673,7 +14850,10 @@
         <v>106</v>
       </c>
       <c r="W172" t="s">
-        <v>403</v>
+        <v>402</v>
+      </c>
+      <c r="X172" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="173" spans="1:24" x14ac:dyDescent="0.25">
@@ -14815,7 +14995,7 @@
         <v>113</v>
       </c>
       <c r="W174" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="175" spans="1:24" x14ac:dyDescent="0.25">
@@ -14886,7 +15066,7 @@
         <v>254</v>
       </c>
       <c r="W175" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="X175" t="s">
         <v>359</v>
@@ -14960,7 +15140,7 @@
         <v>256</v>
       </c>
       <c r="W176" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="177" spans="1:24" x14ac:dyDescent="0.25">
@@ -15031,7 +15211,7 @@
         <v>229</v>
       </c>
       <c r="W177" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="178" spans="1:24" x14ac:dyDescent="0.25">
@@ -15105,7 +15285,7 @@
         <v>347</v>
       </c>
       <c r="X178" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="179" spans="1:24" x14ac:dyDescent="0.25">
@@ -15176,7 +15356,7 @@
         <v>252</v>
       </c>
       <c r="W179" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="X179" t="s">
         <v>378</v>
@@ -15250,7 +15430,10 @@
         <v>260</v>
       </c>
       <c r="W180" t="s">
-        <v>451</v>
+        <v>450</v>
+      </c>
+      <c r="X180" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="181" spans="1:24" x14ac:dyDescent="0.25">
@@ -15392,7 +15575,7 @@
         <v>126</v>
       </c>
       <c r="W182" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="183" spans="1:24" x14ac:dyDescent="0.25">
@@ -15463,7 +15646,7 @@
         <v>247</v>
       </c>
       <c r="W183" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="X183" t="s">
         <v>375</v>
@@ -15611,7 +15794,10 @@
         <v>111</v>
       </c>
       <c r="W185" t="s">
-        <v>406</v>
+        <v>405</v>
+      </c>
+      <c r="X185" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="186" spans="1:24" x14ac:dyDescent="0.25">
@@ -15682,7 +15868,7 @@
         <v>108</v>
       </c>
       <c r="W186" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="187" spans="1:24" x14ac:dyDescent="0.25">
@@ -15753,7 +15939,7 @@
         <v>152</v>
       </c>
       <c r="W187" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="188" spans="1:24" x14ac:dyDescent="0.25">
@@ -15824,7 +16010,7 @@
         <v>254</v>
       </c>
       <c r="W188" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="X188" t="s">
         <v>359</v>
@@ -15969,7 +16155,7 @@
         <v>249</v>
       </c>
       <c r="W190" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="191" spans="1:24" x14ac:dyDescent="0.25">
@@ -16188,7 +16374,10 @@
         <v>110</v>
       </c>
       <c r="W193" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="X193" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="194" spans="1:24" x14ac:dyDescent="0.25">
@@ -16259,7 +16448,7 @@
         <v>265</v>
       </c>
       <c r="W194" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="195" spans="1:24" x14ac:dyDescent="0.25">
@@ -16401,7 +16590,7 @@
         <v>247</v>
       </c>
       <c r="W196" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="X196" t="s">
         <v>375</v>
@@ -16475,7 +16664,7 @@
         <v>256</v>
       </c>
       <c r="W197" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="198" spans="1:24" x14ac:dyDescent="0.25">
@@ -16546,7 +16735,7 @@
         <v>200</v>
       </c>
       <c r="W198" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="199" spans="1:24" x14ac:dyDescent="0.25">
@@ -16617,7 +16806,7 @@
         <v>202</v>
       </c>
       <c r="W199" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X199" t="s">
         <v>394</v>
@@ -16691,7 +16880,7 @@
         <v>252</v>
       </c>
       <c r="W200" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="X200" t="s">
         <v>378</v>
@@ -16765,7 +16954,10 @@
         <v>133</v>
       </c>
       <c r="W201" t="s">
-        <v>414</v>
+        <v>413</v>
+      </c>
+      <c r="X201" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="202" spans="1:24" x14ac:dyDescent="0.25">
@@ -17123,7 +17315,7 @@
         <v>249</v>
       </c>
       <c r="W206" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="207" spans="1:24" x14ac:dyDescent="0.25">
@@ -17342,7 +17534,10 @@
         <v>111</v>
       </c>
       <c r="W209" t="s">
-        <v>406</v>
+        <v>405</v>
+      </c>
+      <c r="X209" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="210" spans="1:24" x14ac:dyDescent="0.25">
@@ -17413,7 +17608,7 @@
         <v>265</v>
       </c>
       <c r="W210" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="211" spans="1:24" x14ac:dyDescent="0.25">
@@ -17555,7 +17750,7 @@
         <v>272</v>
       </c>
       <c r="W212" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="X212" t="s">
         <v>369</v>
@@ -17629,7 +17824,10 @@
         <v>133</v>
       </c>
       <c r="W213" t="s">
-        <v>414</v>
+        <v>413</v>
+      </c>
+      <c r="X213" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="214" spans="1:24" x14ac:dyDescent="0.25">
@@ -17700,7 +17898,7 @@
         <v>273</v>
       </c>
       <c r="W214" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="215" spans="1:24" x14ac:dyDescent="0.25">
@@ -17987,7 +18185,7 @@
         <v>200</v>
       </c>
       <c r="W218" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="219" spans="1:24" x14ac:dyDescent="0.25">
@@ -18058,10 +18256,10 @@
         <v>274</v>
       </c>
       <c r="W219" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="X219" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="220" spans="1:24" x14ac:dyDescent="0.25">
@@ -18206,7 +18404,10 @@
         <v>111</v>
       </c>
       <c r="W221" t="s">
-        <v>406</v>
+        <v>405</v>
+      </c>
+      <c r="X221" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="222" spans="1:24" x14ac:dyDescent="0.25">
@@ -18348,7 +18549,7 @@
         <v>152</v>
       </c>
       <c r="W223" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="224" spans="1:24" x14ac:dyDescent="0.25">
@@ -18419,7 +18620,7 @@
         <v>247</v>
       </c>
       <c r="W224" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="X224" t="s">
         <v>375</v>
@@ -18564,7 +18765,7 @@
         <v>249</v>
       </c>
       <c r="W226" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="227" spans="1:24" x14ac:dyDescent="0.25">
@@ -18783,7 +18984,10 @@
         <v>110</v>
       </c>
       <c r="W229" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="X229" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="230" spans="1:24" x14ac:dyDescent="0.25">
@@ -18854,7 +19058,7 @@
         <v>108</v>
       </c>
       <c r="W230" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="231" spans="1:24" x14ac:dyDescent="0.25">
@@ -18925,7 +19129,7 @@
         <v>126</v>
       </c>
       <c r="W231" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="232" spans="1:24" x14ac:dyDescent="0.25">
@@ -18996,7 +19200,7 @@
         <v>254</v>
       </c>
       <c r="W232" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="X232" t="s">
         <v>359</v>
@@ -19141,7 +19345,7 @@
         <v>249</v>
       </c>
       <c r="W234" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="235" spans="1:24" x14ac:dyDescent="0.25">
@@ -19212,7 +19416,7 @@
         <v>274</v>
       </c>
       <c r="W235" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="236" spans="1:24" x14ac:dyDescent="0.25">
@@ -19357,7 +19561,10 @@
         <v>281</v>
       </c>
       <c r="W237" t="s">
-        <v>456</v>
+        <v>455</v>
+      </c>
+      <c r="X237" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="238" spans="1:24" x14ac:dyDescent="0.25">
@@ -19646,6 +19853,9 @@
       <c r="W241" t="s">
         <v>336</v>
       </c>
+      <c r="X241" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="242" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
@@ -19715,7 +19925,7 @@
         <v>265</v>
       </c>
       <c r="W242" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="243" spans="1:24" x14ac:dyDescent="0.25">
@@ -20002,7 +20212,7 @@
         <v>188</v>
       </c>
       <c r="W246" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="247" spans="1:24" x14ac:dyDescent="0.25">
@@ -20073,7 +20283,7 @@
         <v>202</v>
       </c>
       <c r="W247" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X247" t="s">
         <v>394</v>
@@ -20147,7 +20357,7 @@
         <v>179</v>
       </c>
       <c r="W248" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="X248" t="s">
         <v>366</v>
@@ -20221,7 +20431,10 @@
         <v>154</v>
       </c>
       <c r="W249" t="s">
-        <v>422</v>
+        <v>421</v>
+      </c>
+      <c r="X249" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="250" spans="1:24" x14ac:dyDescent="0.25">
@@ -20292,7 +20505,7 @@
         <v>285</v>
       </c>
       <c r="W250" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="251" spans="1:24" x14ac:dyDescent="0.25">
@@ -20363,7 +20576,7 @@
         <v>286</v>
       </c>
       <c r="W251" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="252" spans="1:24" x14ac:dyDescent="0.25">
@@ -20434,7 +20647,7 @@
         <v>210</v>
       </c>
       <c r="W252" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="X252" t="s">
         <v>356</v>
@@ -20579,7 +20792,7 @@
         <v>289</v>
       </c>
       <c r="W254" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="255" spans="1:24" x14ac:dyDescent="0.25">
@@ -20724,7 +20937,7 @@
         <v>252</v>
       </c>
       <c r="W256" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="X256" t="s">
         <v>378</v>
@@ -20798,7 +21011,10 @@
         <v>290</v>
       </c>
       <c r="W257" t="s">
-        <v>460</v>
+        <v>459</v>
+      </c>
+      <c r="X257" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="258" spans="1:24" x14ac:dyDescent="0.25">
@@ -21011,7 +21227,7 @@
         <v>293</v>
       </c>
       <c r="W260" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="X260" t="s">
         <v>358</v>
@@ -21085,7 +21301,7 @@
         <v>294</v>
       </c>
       <c r="W261" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="262" spans="1:24" x14ac:dyDescent="0.25">
@@ -21156,7 +21372,7 @@
         <v>248</v>
       </c>
       <c r="W262" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="263" spans="1:24" x14ac:dyDescent="0.25">
@@ -21227,7 +21443,7 @@
         <v>296</v>
       </c>
       <c r="W263" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="X263" t="s">
         <v>392</v>
@@ -21375,7 +21591,10 @@
         <v>106</v>
       </c>
       <c r="W265" t="s">
-        <v>403</v>
+        <v>402</v>
+      </c>
+      <c r="X265" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="266" spans="1:24" x14ac:dyDescent="0.25">
@@ -21446,7 +21665,7 @@
         <v>125</v>
       </c>
       <c r="W266" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="267" spans="1:24" x14ac:dyDescent="0.25">
@@ -21517,7 +21736,7 @@
         <v>126</v>
       </c>
       <c r="W267" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="268" spans="1:24" x14ac:dyDescent="0.25">
@@ -21588,7 +21807,7 @@
         <v>247</v>
       </c>
       <c r="W268" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="X268" t="s">
         <v>375</v>
@@ -21733,7 +21952,7 @@
         <v>200</v>
       </c>
       <c r="W270" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="271" spans="1:24" x14ac:dyDescent="0.25">
@@ -21952,7 +22171,10 @@
         <v>290</v>
       </c>
       <c r="W273" t="s">
-        <v>460</v>
+        <v>459</v>
+      </c>
+      <c r="X273" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="274" spans="1:24" x14ac:dyDescent="0.25">
@@ -22023,7 +22245,7 @@
         <v>147</v>
       </c>
       <c r="W274" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="275" spans="1:24" x14ac:dyDescent="0.25">
@@ -22165,7 +22387,7 @@
         <v>210</v>
       </c>
       <c r="W276" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="X276" t="s">
         <v>356</v>
@@ -22239,7 +22461,7 @@
         <v>299</v>
       </c>
       <c r="W277" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="278" spans="1:24" x14ac:dyDescent="0.25">
@@ -22310,7 +22532,7 @@
         <v>188</v>
       </c>
       <c r="W278" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="279" spans="1:24" x14ac:dyDescent="0.25">
@@ -22455,7 +22677,7 @@
         <v>252</v>
       </c>
       <c r="W280" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="X280" t="s">
         <v>378</v>
@@ -22529,7 +22751,10 @@
         <v>213</v>
       </c>
       <c r="W281" t="s">
-        <v>437</v>
+        <v>436</v>
+      </c>
+      <c r="X281" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="282" spans="1:24" x14ac:dyDescent="0.25">
@@ -22600,7 +22825,7 @@
         <v>265</v>
       </c>
       <c r="W282" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="283" spans="1:24" x14ac:dyDescent="0.25">
@@ -22887,7 +23112,7 @@
         <v>200</v>
       </c>
       <c r="W286" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="287" spans="1:24" x14ac:dyDescent="0.25">
@@ -22958,10 +23183,10 @@
         <v>301</v>
       </c>
       <c r="W287" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="X287" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="288" spans="1:24" x14ac:dyDescent="0.25">
@@ -23106,10 +23331,10 @@
         <v>110</v>
       </c>
       <c r="W289" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X289" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
     </row>
     <row r="290" spans="1:24" x14ac:dyDescent="0.25">
@@ -23325,7 +23550,10 @@
         <v>111</v>
       </c>
       <c r="W292" t="s">
-        <v>406</v>
+        <v>405</v>
+      </c>
+      <c r="X292" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="293" spans="1:24" x14ac:dyDescent="0.25">
@@ -23396,7 +23624,7 @@
         <v>285</v>
       </c>
       <c r="W293" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="294" spans="1:24" x14ac:dyDescent="0.25">
@@ -23683,7 +23911,7 @@
         <v>188</v>
       </c>
       <c r="W297" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="298" spans="1:24" x14ac:dyDescent="0.25">
@@ -23754,7 +23982,7 @@
         <v>305</v>
       </c>
       <c r="W298" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="X298" t="s">
         <v>393</v>
@@ -23904,6 +24132,9 @@
       <c r="W300" t="s">
         <v>318</v>
       </c>
+      <c r="X300" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="301" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
@@ -23973,7 +24204,7 @@
         <v>273</v>
       </c>
       <c r="W301" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="302" spans="1:24" x14ac:dyDescent="0.25">
@@ -24044,7 +24275,7 @@
         <v>113</v>
       </c>
       <c r="W302" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="303" spans="1:24" x14ac:dyDescent="0.25">
@@ -24479,7 +24710,10 @@
         <v>110</v>
       </c>
       <c r="W308" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="X308" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="309" spans="1:24" x14ac:dyDescent="0.25">
@@ -24621,7 +24855,7 @@
         <v>113</v>
       </c>
       <c r="W310" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="311" spans="1:24" x14ac:dyDescent="0.25">
@@ -24692,7 +24926,7 @@
         <v>188</v>
       </c>
       <c r="W311" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="X311" t="s">
         <v>357</v>
@@ -24837,7 +25071,7 @@
         <v>200</v>
       </c>
       <c r="W313" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="314" spans="1:24" x14ac:dyDescent="0.25">
@@ -24908,7 +25142,7 @@
         <v>202</v>
       </c>
       <c r="W314" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X314" t="s">
         <v>394</v>
@@ -25056,7 +25290,10 @@
         <v>260</v>
       </c>
       <c r="W316" t="s">
-        <v>451</v>
+        <v>450</v>
+      </c>
+      <c r="X316" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="317" spans="1:24" x14ac:dyDescent="0.25">
@@ -25343,7 +25580,10 @@
         <v>110</v>
       </c>
       <c r="W320" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="X320" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="321" spans="1:24" x14ac:dyDescent="0.25">
@@ -25556,7 +25796,7 @@
         <v>210</v>
       </c>
       <c r="W323" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="X323" t="s">
         <v>356</v>
@@ -25701,7 +25941,7 @@
         <v>200</v>
       </c>
       <c r="W325" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="326" spans="1:24" x14ac:dyDescent="0.25">
@@ -25772,7 +26012,7 @@
         <v>202</v>
       </c>
       <c r="W326" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X326" t="s">
         <v>394</v>
@@ -25920,7 +26160,10 @@
         <v>111</v>
       </c>
       <c r="W328" t="s">
-        <v>406</v>
+        <v>405</v>
+      </c>
+      <c r="X328" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="329" spans="1:24" x14ac:dyDescent="0.25">
@@ -25991,7 +26234,7 @@
         <v>285</v>
       </c>
       <c r="W329" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="330" spans="1:24" x14ac:dyDescent="0.25">
@@ -26133,7 +26376,7 @@
         <v>247</v>
       </c>
       <c r="W331" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="X331" t="s">
         <v>375</v>
@@ -26278,7 +26521,7 @@
         <v>188</v>
       </c>
       <c r="W333" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="334" spans="1:24" x14ac:dyDescent="0.25">
@@ -26499,6 +26742,9 @@
       <c r="W336" t="s">
         <v>318</v>
       </c>
+      <c r="X336" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="337" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
@@ -26568,7 +26814,7 @@
         <v>273</v>
       </c>
       <c r="W337" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="338" spans="1:24" x14ac:dyDescent="0.25">
@@ -26639,7 +26885,7 @@
         <v>113</v>
       </c>
       <c r="W338" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="339" spans="1:24" x14ac:dyDescent="0.25">
@@ -26926,7 +27172,7 @@
         <v>296</v>
       </c>
       <c r="W342" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="X342" t="s">
         <v>392</v>
@@ -27074,7 +27320,7 @@
         <v>125</v>
       </c>
       <c r="W344" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="345" spans="1:24" x14ac:dyDescent="0.25">
@@ -27216,7 +27462,7 @@
         <v>226</v>
       </c>
       <c r="W346" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="X346" t="s">
         <v>376</v>
@@ -27361,7 +27607,7 @@
         <v>200</v>
       </c>
       <c r="W348" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="349" spans="1:24" x14ac:dyDescent="0.25">
@@ -27580,7 +27826,10 @@
         <v>111</v>
       </c>
       <c r="W351" t="s">
-        <v>406</v>
+        <v>405</v>
+      </c>
+      <c r="X351" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="352" spans="1:24" x14ac:dyDescent="0.25">
@@ -27793,7 +28042,7 @@
         <v>307</v>
       </c>
       <c r="W354" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X354" t="s">
         <v>364</v>
@@ -27938,7 +28187,7 @@
         <v>188</v>
       </c>
       <c r="W356" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="357" spans="1:24" x14ac:dyDescent="0.25">
@@ -28009,7 +28258,7 @@
         <v>202</v>
       </c>
       <c r="W357" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X357" t="s">
         <v>394</v>
@@ -28157,7 +28406,10 @@
         <v>110</v>
       </c>
       <c r="W359" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="X359" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="360" spans="1:24" x14ac:dyDescent="0.25">
@@ -28228,7 +28480,7 @@
         <v>180</v>
       </c>
       <c r="W360" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="361" spans="1:24" x14ac:dyDescent="0.25">
@@ -28515,7 +28767,7 @@
         <v>200</v>
       </c>
       <c r="W364" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="365" spans="1:24" x14ac:dyDescent="0.25">
@@ -28586,7 +28838,7 @@
         <v>296</v>
       </c>
       <c r="W365" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="X365" t="s">
         <v>392</v>
@@ -28660,7 +28912,7 @@
         <v>252</v>
       </c>
       <c r="W366" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="X366" t="s">
         <v>378</v>
@@ -28736,6 +28988,9 @@
       <c r="W367" t="s">
         <v>345</v>
       </c>
+      <c r="X367" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="368" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
@@ -28805,7 +29060,7 @@
         <v>125</v>
       </c>
       <c r="W368" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="369" spans="1:24" x14ac:dyDescent="0.25">
@@ -29018,7 +29273,7 @@
         <v>200</v>
       </c>
       <c r="W371" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="372" spans="1:24" x14ac:dyDescent="0.25">
@@ -29089,7 +29344,7 @@
         <v>202</v>
       </c>
       <c r="W372" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X372" t="s">
         <v>394</v>
@@ -29163,7 +29418,7 @@
         <v>265</v>
       </c>
       <c r="W373" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="374" spans="1:24" x14ac:dyDescent="0.25">
@@ -29450,7 +29705,7 @@
         <v>200</v>
       </c>
       <c r="W377" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="378" spans="1:24" x14ac:dyDescent="0.25">
@@ -29669,7 +29924,10 @@
         <v>106</v>
       </c>
       <c r="W380" t="s">
-        <v>403</v>
+        <v>402</v>
+      </c>
+      <c r="X380" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="381" spans="1:24" x14ac:dyDescent="0.25">
@@ -29740,7 +29998,7 @@
         <v>125</v>
       </c>
       <c r="W381" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="382" spans="1:24" x14ac:dyDescent="0.25">
@@ -30027,7 +30285,7 @@
         <v>229</v>
       </c>
       <c r="W385" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="386" spans="1:24" x14ac:dyDescent="0.25">
@@ -30098,7 +30356,7 @@
         <v>305</v>
       </c>
       <c r="W386" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="X386" t="s">
         <v>393</v>
@@ -30172,7 +30430,7 @@
         <v>252</v>
       </c>
       <c r="W387" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="X387" t="s">
         <v>378</v>
@@ -30246,7 +30504,10 @@
         <v>290</v>
       </c>
       <c r="W388" t="s">
-        <v>460</v>
+        <v>459</v>
+      </c>
+      <c r="X388" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="389" spans="1:24" x14ac:dyDescent="0.25">
@@ -30601,7 +30862,7 @@
         <v>200</v>
       </c>
       <c r="W393" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="394" spans="1:24" x14ac:dyDescent="0.25">
@@ -30672,10 +30933,10 @@
         <v>301</v>
       </c>
       <c r="W394" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="X394" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="395" spans="1:24" x14ac:dyDescent="0.25">
@@ -30817,7 +31078,7 @@
         <v>310</v>
       </c>
       <c r="W396" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="397" spans="1:24" x14ac:dyDescent="0.25">
@@ -30962,7 +31223,7 @@
         <v>265</v>
       </c>
       <c r="W398" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="399" spans="1:24" x14ac:dyDescent="0.25">
@@ -31104,7 +31365,7 @@
         <v>200</v>
       </c>
       <c r="W400" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="401" spans="1:24" x14ac:dyDescent="0.25">
@@ -31175,7 +31436,7 @@
         <v>202</v>
       </c>
       <c r="W401" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X401" t="s">
         <v>394</v>
@@ -31249,7 +31510,7 @@
         <v>312</v>
       </c>
       <c r="W402" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="X402" t="s">
         <v>368</v>
@@ -31325,6 +31586,9 @@
       <c r="W403" t="s">
         <v>318</v>
       </c>
+      <c r="X403" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="404" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
@@ -31394,7 +31658,7 @@
         <v>240</v>
       </c>
       <c r="W404" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="405" spans="1:24" x14ac:dyDescent="0.25">
@@ -31678,7 +31942,7 @@
         <v>200</v>
       </c>
       <c r="W408" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="409" spans="1:24" x14ac:dyDescent="0.25">
@@ -31749,7 +32013,7 @@
         <v>202</v>
       </c>
       <c r="W409" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X409" t="s">
         <v>394</v>
@@ -31965,7 +32229,7 @@
         <v>289</v>
       </c>
       <c r="W412" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="413" spans="1:24" x14ac:dyDescent="0.25">
@@ -32036,7 +32300,7 @@
         <v>313</v>
       </c>
       <c r="W413" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="X413" t="s">
         <v>388</v>
@@ -32110,7 +32374,7 @@
         <v>229</v>
       </c>
       <c r="W414" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="415" spans="1:24" x14ac:dyDescent="0.25">
@@ -32181,7 +32445,7 @@
         <v>305</v>
       </c>
       <c r="W415" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="X415" t="s">
         <v>393</v>
@@ -32545,7 +32809,10 @@
         <v>133</v>
       </c>
       <c r="W420" t="s">
-        <v>414</v>
+        <v>413</v>
+      </c>
+      <c r="X420" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="421" spans="1:24" x14ac:dyDescent="0.25">
@@ -32616,7 +32883,7 @@
         <v>125</v>
       </c>
       <c r="W421" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="422" spans="1:24" x14ac:dyDescent="0.25">
@@ -32687,7 +32954,7 @@
         <v>265</v>
       </c>
       <c r="W422" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="423" spans="1:24" x14ac:dyDescent="0.25">
@@ -32834,6 +33101,9 @@
       <c r="W424" t="s">
         <v>336</v>
       </c>
+      <c r="X424" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="425" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
@@ -33050,6 +33320,9 @@
       <c r="W427" t="s">
         <v>349</v>
       </c>
+      <c r="X427" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="428" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
@@ -33264,7 +33537,10 @@
         <v>68</v>
       </c>
       <c r="W430" t="s">
-        <v>401</v>
+        <v>400</v>
+      </c>
+      <c r="X430" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="431" spans="1:24" x14ac:dyDescent="0.25">
@@ -33483,7 +33759,7 @@
         <v>374</v>
       </c>
       <c r="X433" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/cleaned_animal_disease_prediction.xlsx
+++ b/cleaned_animal_disease_prediction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abbey\Documents\finalyear_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2CD708-33AB-4CD6-A452-CB47881CD66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D2681F-59A4-4401-BA0E-F5CEF4B75BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="cleaned_animal_disease_predicti" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cleaned_animal_disease_predicti!$A$1:$W$433</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cleaned_animal_disease_predicti!$A$1:$W$434</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8883" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8925" uniqueCount="504">
   <si>
     <t>species</t>
   </si>
@@ -1499,6 +1499,42 @@
   </si>
   <si>
     <t>Ringworm (dermatophytosis) is a fungal infection of the skin, hair, or claws—not caused by a worm.</t>
+  </si>
+  <si>
+    <t>CAE is a chronic viral disease caused by a lentivirus (small ruminant lentivirus group), affecting goats worldwide. It manifests in multiple forms, primarily targeting joints, the nervous system, udder, and lungs.</t>
+  </si>
+  <si>
+    <t>CCPP is a highly contagious respiratory disease in goats caused by the bacterium Mycoplasma capricolum subspecies capripneumoniae. It is characterized by severe lung inflammation and pleural fluid buildup, leading to high mortality if untreated.</t>
+  </si>
+  <si>
+    <t>Caprine Respiratory Disease is a common, often multifactorial illness affecting the respiratory system of goats, caused by a combination of bacteria, viruses, parasites, and environmental stressors.</t>
+  </si>
+  <si>
+    <t>Caprine Viral Arthritis is a chronic viral disease in goats caused by the Caprine Arthritis-Encephalitis Virus (CAEV), a retrovirus. It primarily affects the joints, udder, and nervous system, leading to progressive debilitation.</t>
+  </si>
+  <si>
+    <t>Caseous Lymphadenitis is a chronic bacterial infection caused by Corynebacterium pseudotuberculosis. It is characterized by abscess formation in lymph nodes (especially head, neck, and internal organs) and is highly contagious among goats and sheep.</t>
+  </si>
+  <si>
+    <t>Coccidiosis is a parasitic disease caused by protozoa of the Eimeria genus, which infect the intestinal lining of goats. It primarily affects young kids (2–6 months old) and is a major cause of diarrhea and poor growth in herds.</t>
+  </si>
+  <si>
+    <t>Foot and Mouth Disease is a highly contagious viral disease caused by the Aphthovirus (Picornaviridae family). It affects cloven-hoofed animals, including goats, cattle, and pigs.</t>
+  </si>
+  <si>
+    <t>Gastrointestinal (GI) infections in goats are digestive tract disorders caused by bacteria, viruses, parasites, or dietary issues, leading to diarrhea, dehydration, and weight loss. </t>
+  </si>
+  <si>
+    <t>Giardiasis is a protozoal parasitic infection caused by Giardia duodenalis (also called Giardia lamblia), affecting the small intestine of goats.</t>
+  </si>
+  <si>
+    <t>Goat pox is a highly contagious viral disease caused by Capripoxvirus, affecting goats (and sometimes sheep).</t>
+  </si>
+  <si>
+    <t>Pneumonia in goats is a respiratory disease characterized by inflammation of the lungs, often caused by bacterial, viral, or parasitic infections, as well as environmental stressors.</t>
+  </si>
+  <si>
+    <t>It primarily affects calves (3 weeks to 6 months old) but can also occur in stressed or immunocompromised adult cattle. </t>
   </si>
 </sst>
 </file>
@@ -2347,16 +2383,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X433"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:X434"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="W436" sqref="W436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="22" max="22" width="55.85546875" customWidth="1"/>
-    <col min="23" max="23" width="143.42578125" customWidth="1"/>
+    <col min="23" max="23" width="216.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -2433,7 +2470,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2507,7 +2544,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -2581,7 +2618,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2652,7 +2689,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2726,7 +2763,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -2800,7 +2837,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2871,7 +2908,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2945,7 +2982,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -3019,7 +3056,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3093,7 +3130,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -3164,7 +3201,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -3238,7 +3275,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3312,7 +3349,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -3386,7 +3423,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -3457,7 +3494,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -3528,7 +3565,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -3602,7 +3639,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -3676,7 +3713,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3750,7 +3787,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -3821,7 +3858,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -3895,7 +3932,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -3966,7 +4003,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -4037,7 +4074,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -4111,7 +4148,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -4185,7 +4222,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -4256,7 +4293,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -4330,7 +4367,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -4404,7 +4441,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -4475,7 +4512,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -4549,7 +4586,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -4623,7 +4660,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -4694,7 +4731,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -4768,7 +4805,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -4842,7 +4879,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -4913,7 +4950,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -4984,7 +5021,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -5058,7 +5095,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -5132,7 +5169,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -5203,7 +5240,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -5274,7 +5311,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -5348,7 +5385,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -5422,7 +5459,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -5496,7 +5533,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -5570,7 +5607,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -5641,7 +5678,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -5712,7 +5749,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -5786,7 +5823,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -5860,7 +5897,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -5931,7 +5968,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -6002,7 +6039,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -6076,7 +6113,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -6150,7 +6187,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -6221,7 +6258,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -6292,7 +6329,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -6366,7 +6403,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -6440,7 +6477,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -6511,7 +6548,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -6582,7 +6619,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -6656,7 +6693,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -6730,7 +6767,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -6801,7 +6838,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -6872,7 +6909,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>22</v>
       </c>
@@ -6946,7 +6983,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -7020,7 +7057,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>57</v>
       </c>
@@ -7091,7 +7128,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>42</v>
       </c>
@@ -7161,8 +7198,11 @@
       <c r="W66" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X66" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>22</v>
       </c>
@@ -7236,7 +7276,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -7310,7 +7350,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>57</v>
       </c>
@@ -7381,7 +7421,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>42</v>
       </c>
@@ -7452,7 +7492,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>22</v>
       </c>
@@ -7526,7 +7566,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -7600,7 +7640,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -7674,7 +7714,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -7748,7 +7788,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>57</v>
       </c>
@@ -7819,7 +7859,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>42</v>
       </c>
@@ -7890,7 +7930,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>22</v>
       </c>
@@ -7964,7 +8004,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>33</v>
       </c>
@@ -8038,7 +8078,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>57</v>
       </c>
@@ -8109,7 +8149,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -8180,7 +8220,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -8254,7 +8294,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -8328,7 +8368,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>57</v>
       </c>
@@ -8399,7 +8439,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>42</v>
       </c>
@@ -8470,7 +8510,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>22</v>
       </c>
@@ -8544,7 +8584,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -8618,7 +8658,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>57</v>
       </c>
@@ -8689,7 +8729,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>42</v>
       </c>
@@ -8760,7 +8800,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -8834,7 +8874,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>33</v>
       </c>
@@ -8908,7 +8948,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>57</v>
       </c>
@@ -8979,7 +9019,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>42</v>
       </c>
@@ -9050,7 +9090,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -9124,7 +9164,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -9198,7 +9238,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>57</v>
       </c>
@@ -9269,7 +9309,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>42</v>
       </c>
@@ -9339,8 +9379,11 @@
       <c r="W96" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X96" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -9414,7 +9457,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -9488,7 +9531,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>57</v>
       </c>
@@ -9630,7 +9673,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>22</v>
       </c>
@@ -9704,7 +9747,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>33</v>
       </c>
@@ -9778,7 +9821,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>22</v>
       </c>
@@ -9852,7 +9895,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>33</v>
       </c>
@@ -9926,7 +9969,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>57</v>
       </c>
@@ -9997,7 +10040,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>42</v>
       </c>
@@ -10068,7 +10111,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>183</v>
       </c>
@@ -10142,7 +10185,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>186</v>
       </c>
@@ -10213,7 +10256,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>189</v>
       </c>
@@ -10283,8 +10326,11 @@
       <c r="W109" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X109" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>192</v>
       </c>
@@ -10358,7 +10404,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>22</v>
       </c>
@@ -10432,7 +10478,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>33</v>
       </c>
@@ -10506,7 +10552,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>57</v>
       </c>
@@ -10577,7 +10623,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>42</v>
       </c>
@@ -10648,7 +10694,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>183</v>
       </c>
@@ -10722,7 +10768,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>186</v>
       </c>
@@ -10793,7 +10839,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>189</v>
       </c>
@@ -10863,8 +10909,11 @@
       <c r="W117" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X117" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>192</v>
       </c>
@@ -10938,7 +10987,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>22</v>
       </c>
@@ -11012,7 +11061,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>33</v>
       </c>
@@ -11086,7 +11135,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>57</v>
       </c>
@@ -11157,7 +11206,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>42</v>
       </c>
@@ -11228,7 +11277,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>183</v>
       </c>
@@ -11302,7 +11351,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>186</v>
       </c>
@@ -11373,7 +11422,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>189</v>
       </c>
@@ -11443,8 +11492,11 @@
       <c r="W125" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X125" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>22</v>
       </c>
@@ -11518,7 +11570,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -11592,7 +11644,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>57</v>
       </c>
@@ -11663,7 +11715,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>42</v>
       </c>
@@ -11734,7 +11786,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>183</v>
       </c>
@@ -11808,7 +11860,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>186</v>
       </c>
@@ -11879,7 +11931,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>189</v>
       </c>
@@ -11949,8 +12001,11 @@
       <c r="W132" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X132" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>192</v>
       </c>
@@ -12024,7 +12079,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>22</v>
       </c>
@@ -12098,7 +12153,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>33</v>
       </c>
@@ -12172,7 +12227,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>57</v>
       </c>
@@ -12243,7 +12298,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>42</v>
       </c>
@@ -12314,7 +12369,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>183</v>
       </c>
@@ -12388,7 +12443,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>186</v>
       </c>
@@ -12459,7 +12514,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>189</v>
       </c>
@@ -12529,8 +12584,11 @@
       <c r="W140" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X140" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>192</v>
       </c>
@@ -12604,7 +12662,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>22</v>
       </c>
@@ -12678,7 +12736,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>33</v>
       </c>
@@ -12752,7 +12810,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>57</v>
       </c>
@@ -12823,7 +12881,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>42</v>
       </c>
@@ -12894,7 +12952,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>183</v>
       </c>
@@ -12968,7 +13026,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>186</v>
       </c>
@@ -13039,7 +13097,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>189</v>
       </c>
@@ -13109,8 +13167,11 @@
       <c r="W148" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X148" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>192</v>
       </c>
@@ -13184,7 +13245,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>22</v>
       </c>
@@ -13258,7 +13319,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>33</v>
       </c>
@@ -13332,7 +13393,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>57</v>
       </c>
@@ -13403,7 +13464,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>42</v>
       </c>
@@ -13474,7 +13535,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>183</v>
       </c>
@@ -13548,7 +13609,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>22</v>
       </c>
@@ -13622,7 +13683,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>33</v>
       </c>
@@ -13696,7 +13757,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>57</v>
       </c>
@@ -13767,7 +13828,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>42</v>
       </c>
@@ -13838,7 +13899,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>183</v>
       </c>
@@ -13912,7 +13973,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>186</v>
       </c>
@@ -13983,7 +14044,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>189</v>
       </c>
@@ -14053,8 +14114,11 @@
       <c r="W161" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X161" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>192</v>
       </c>
@@ -14128,7 +14192,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>22</v>
       </c>
@@ -14202,7 +14266,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>33</v>
       </c>
@@ -14276,7 +14340,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>57</v>
       </c>
@@ -14347,7 +14411,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>42</v>
       </c>
@@ -14418,7 +14482,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>183</v>
       </c>
@@ -14492,7 +14556,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>186</v>
       </c>
@@ -14563,7 +14627,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>189</v>
       </c>
@@ -14633,8 +14697,11 @@
       <c r="W169" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X169" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>192</v>
       </c>
@@ -14708,7 +14775,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>22</v>
       </c>
@@ -14782,7 +14849,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>33</v>
       </c>
@@ -14856,7 +14923,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>57</v>
       </c>
@@ -14927,7 +14994,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>42</v>
       </c>
@@ -14998,7 +15065,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>183</v>
       </c>
@@ -15072,7 +15139,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>186</v>
       </c>
@@ -15143,7 +15210,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>189</v>
       </c>
@@ -15213,8 +15280,11 @@
       <c r="W177" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X177" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -15288,7 +15358,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>22</v>
       </c>
@@ -15362,7 +15432,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>33</v>
       </c>
@@ -15436,7 +15506,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>57</v>
       </c>
@@ -15507,7 +15577,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>42</v>
       </c>
@@ -15578,7 +15648,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -15652,7 +15722,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>22</v>
       </c>
@@ -15726,7 +15796,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>33</v>
       </c>
@@ -15800,7 +15870,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>57</v>
       </c>
@@ -15871,7 +15941,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>42</v>
       </c>
@@ -15942,7 +16012,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>183</v>
       </c>
@@ -16016,7 +16086,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>186</v>
       </c>
@@ -16087,7 +16157,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -16157,8 +16227,11 @@
       <c r="W190" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X190" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -16232,7 +16305,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>22</v>
       </c>
@@ -16306,7 +16379,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>33</v>
       </c>
@@ -16380,7 +16453,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>57</v>
       </c>
@@ -16451,7 +16524,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>42</v>
       </c>
@@ -16522,7 +16595,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>183</v>
       </c>
@@ -16596,7 +16669,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>186</v>
       </c>
@@ -16667,7 +16740,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>189</v>
       </c>
@@ -16737,8 +16810,11 @@
       <c r="W198" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X198" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>192</v>
       </c>
@@ -16812,7 +16888,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>22</v>
       </c>
@@ -16886,7 +16962,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>33</v>
       </c>
@@ -16960,7 +17036,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>57</v>
       </c>
@@ -17031,7 +17107,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>42</v>
       </c>
@@ -17102,7 +17178,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>183</v>
       </c>
@@ -17176,7 +17252,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>186</v>
       </c>
@@ -17247,7 +17323,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>189</v>
       </c>
@@ -17317,8 +17393,11 @@
       <c r="W206" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X206" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>192</v>
       </c>
@@ -17392,7 +17471,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>22</v>
       </c>
@@ -17466,7 +17545,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>33</v>
       </c>
@@ -17540,7 +17619,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>57</v>
       </c>
@@ -17611,7 +17690,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>42</v>
       </c>
@@ -17682,7 +17761,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>22</v>
       </c>
@@ -17756,7 +17835,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>33</v>
       </c>
@@ -17830,7 +17909,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>57</v>
       </c>
@@ -17901,7 +17980,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>42</v>
       </c>
@@ -17972,7 +18051,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>183</v>
       </c>
@@ -18046,7 +18125,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>186</v>
       </c>
@@ -18117,7 +18196,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>189</v>
       </c>
@@ -18187,8 +18266,11 @@
       <c r="W218" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X218" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="219" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>192</v>
       </c>
@@ -18262,7 +18344,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>22</v>
       </c>
@@ -18336,7 +18418,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>33</v>
       </c>
@@ -18410,7 +18492,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>57</v>
       </c>
@@ -18481,7 +18563,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>42</v>
       </c>
@@ -18552,7 +18634,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>183</v>
       </c>
@@ -18626,7 +18708,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>186</v>
       </c>
@@ -18697,7 +18779,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>189</v>
       </c>
@@ -18767,8 +18849,11 @@
       <c r="W226" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X226" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>192</v>
       </c>
@@ -18842,7 +18927,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>22</v>
       </c>
@@ -18916,7 +19001,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>33</v>
       </c>
@@ -18990,7 +19075,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>57</v>
       </c>
@@ -19061,7 +19146,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>42</v>
       </c>
@@ -19132,7 +19217,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>183</v>
       </c>
@@ -19206,7 +19291,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>186</v>
       </c>
@@ -19277,7 +19362,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>189</v>
       </c>
@@ -19347,8 +19432,11 @@
       <c r="W234" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X234" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>192</v>
       </c>
@@ -19419,7 +19507,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>22</v>
       </c>
@@ -19493,7 +19581,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>33</v>
       </c>
@@ -19567,7 +19655,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>57</v>
       </c>
@@ -19638,7 +19726,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>42</v>
       </c>
@@ -19709,7 +19797,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>22</v>
       </c>
@@ -19783,7 +19871,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>33</v>
       </c>
@@ -19857,7 +19945,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>57</v>
       </c>
@@ -19928,7 +20016,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>42</v>
       </c>
@@ -19999,7 +20087,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>183</v>
       </c>
@@ -20073,7 +20161,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>186</v>
       </c>
@@ -20144,7 +20232,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>189</v>
       </c>
@@ -20214,8 +20302,11 @@
       <c r="W246" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X246" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="247" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>192</v>
       </c>
@@ -20289,7 +20380,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>22</v>
       </c>
@@ -20363,7 +20454,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>33</v>
       </c>
@@ -20437,7 +20528,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>57</v>
       </c>
@@ -20508,7 +20599,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>42</v>
       </c>
@@ -20579,7 +20670,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>183</v>
       </c>
@@ -20653,7 +20744,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>186</v>
       </c>
@@ -20724,7 +20815,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>189</v>
       </c>
@@ -20794,8 +20885,11 @@
       <c r="W254" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X254" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="255" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>192</v>
       </c>
@@ -20869,7 +20963,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>22</v>
       </c>
@@ -20943,7 +21037,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>33</v>
       </c>
@@ -21017,7 +21111,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>57</v>
       </c>
@@ -21088,7 +21182,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>42</v>
       </c>
@@ -21159,7 +21253,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>183</v>
       </c>
@@ -21233,7 +21327,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>186</v>
       </c>
@@ -21304,7 +21398,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>189</v>
       </c>
@@ -21374,8 +21468,11 @@
       <c r="W262" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X262" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="263" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>192</v>
       </c>
@@ -21449,7 +21546,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>22</v>
       </c>
@@ -21523,7 +21620,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>33</v>
       </c>
@@ -21597,7 +21694,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>57</v>
       </c>
@@ -21668,7 +21765,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>42</v>
       </c>
@@ -21739,7 +21836,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>183</v>
       </c>
@@ -21813,7 +21910,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>186</v>
       </c>
@@ -21884,7 +21981,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>189</v>
       </c>
@@ -21954,8 +22051,11 @@
       <c r="W270" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X270" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="271" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>192</v>
       </c>
@@ -22029,7 +22129,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>22</v>
       </c>
@@ -22103,7 +22203,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>33</v>
       </c>
@@ -22177,7 +22277,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>57</v>
       </c>
@@ -22248,7 +22348,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>42</v>
       </c>
@@ -22319,7 +22419,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>183</v>
       </c>
@@ -22393,7 +22493,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>186</v>
       </c>
@@ -22464,7 +22564,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>189</v>
       </c>
@@ -22534,8 +22634,11 @@
       <c r="W278" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X278" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="279" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>192</v>
       </c>
@@ -22609,7 +22712,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>22</v>
       </c>
@@ -22683,7 +22786,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>33</v>
       </c>
@@ -22757,7 +22860,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>57</v>
       </c>
@@ -22828,7 +22931,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>42</v>
       </c>
@@ -22899,7 +23002,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>183</v>
       </c>
@@ -22973,7 +23076,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>186</v>
       </c>
@@ -23044,7 +23147,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>189</v>
       </c>
@@ -23114,8 +23217,11 @@
       <c r="W286" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X286" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="287" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>192</v>
       </c>
@@ -23189,7 +23295,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>22</v>
       </c>
@@ -23263,7 +23369,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>33</v>
       </c>
@@ -23337,7 +23443,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>57</v>
       </c>
@@ -23408,7 +23514,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="291" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>22</v>
       </c>
@@ -23482,7 +23588,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="292" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>33</v>
       </c>
@@ -23556,7 +23662,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="293" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>57</v>
       </c>
@@ -23627,7 +23733,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>42</v>
       </c>
@@ -23698,7 +23804,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>183</v>
       </c>
@@ -23772,7 +23878,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>186</v>
       </c>
@@ -23843,7 +23949,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="297" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>189</v>
       </c>
@@ -23913,8 +24019,11 @@
       <c r="W297" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X297" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="298" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>192</v>
       </c>
@@ -23988,7 +24097,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="299" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>22</v>
       </c>
@@ -24062,7 +24171,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>33</v>
       </c>
@@ -24136,7 +24245,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>57</v>
       </c>
@@ -24207,7 +24316,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>42</v>
       </c>
@@ -24278,7 +24387,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>183</v>
       </c>
@@ -24352,7 +24461,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>186</v>
       </c>
@@ -24423,7 +24532,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="305" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>189</v>
       </c>
@@ -24493,8 +24602,11 @@
       <c r="W305" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X305" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="306" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>192</v>
       </c>
@@ -24568,7 +24680,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="307" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>22</v>
       </c>
@@ -24642,7 +24754,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>33</v>
       </c>
@@ -24716,7 +24828,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="309" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>57</v>
       </c>
@@ -24787,7 +24899,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="310" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>42</v>
       </c>
@@ -24858,7 +24970,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>183</v>
       </c>
@@ -24932,7 +25044,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>186</v>
       </c>
@@ -25003,7 +25115,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="313" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>189</v>
       </c>
@@ -25073,8 +25185,11 @@
       <c r="W313" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X313" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="314" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>192</v>
       </c>
@@ -25148,7 +25263,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="315" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>22</v>
       </c>
@@ -25222,7 +25337,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="316" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>33</v>
       </c>
@@ -25296,7 +25411,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="317" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>57</v>
       </c>
@@ -25367,7 +25482,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="318" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>42</v>
       </c>
@@ -25438,7 +25553,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="319" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>22</v>
       </c>
@@ -25512,7 +25627,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>33</v>
       </c>
@@ -25586,7 +25701,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="321" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>57</v>
       </c>
@@ -25657,7 +25772,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="322" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>42</v>
       </c>
@@ -25728,7 +25843,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="323" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>183</v>
       </c>
@@ -25802,7 +25917,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="324" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>186</v>
       </c>
@@ -25873,7 +25988,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="325" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>189</v>
       </c>
@@ -25943,8 +26058,11 @@
       <c r="W325" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="326" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X325" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="326" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>192</v>
       </c>
@@ -26018,7 +26136,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="327" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>22</v>
       </c>
@@ -26092,7 +26210,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="328" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>33</v>
       </c>
@@ -26166,7 +26284,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="329" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>57</v>
       </c>
@@ -26237,7 +26355,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="330" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>42</v>
       </c>
@@ -26308,7 +26426,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="331" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>183</v>
       </c>
@@ -26382,7 +26500,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="332" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>186</v>
       </c>
@@ -26453,7 +26571,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="333" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>189</v>
       </c>
@@ -26523,8 +26641,11 @@
       <c r="W333" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="334" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X333" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="334" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>192</v>
       </c>
@@ -26598,7 +26719,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="335" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>22</v>
       </c>
@@ -26672,7 +26793,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="336" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>33</v>
       </c>
@@ -26746,7 +26867,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="337" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>57</v>
       </c>
@@ -26817,7 +26938,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="338" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>42</v>
       </c>
@@ -26888,7 +27009,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>183</v>
       </c>
@@ -26962,7 +27083,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="340" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>186</v>
       </c>
@@ -27033,7 +27154,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="341" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>189</v>
       </c>
@@ -27103,8 +27224,11 @@
       <c r="W341" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X341" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="342" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>192</v>
       </c>
@@ -27178,7 +27302,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>22</v>
       </c>
@@ -27252,7 +27376,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>57</v>
       </c>
@@ -27323,7 +27447,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="345" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>42</v>
       </c>
@@ -27394,7 +27518,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>183</v>
       </c>
@@ -27468,7 +27592,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>186</v>
       </c>
@@ -27539,7 +27663,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="348" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>189</v>
       </c>
@@ -27609,8 +27733,11 @@
       <c r="W348" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X348" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="349" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>192</v>
       </c>
@@ -27684,7 +27811,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="350" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>22</v>
       </c>
@@ -27758,7 +27885,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="351" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>33</v>
       </c>
@@ -27832,7 +27959,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>57</v>
       </c>
@@ -27903,7 +28030,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>42</v>
       </c>
@@ -27974,7 +28101,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>183</v>
       </c>
@@ -28048,7 +28175,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>186</v>
       </c>
@@ -28119,7 +28246,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>189</v>
       </c>
@@ -28189,8 +28316,11 @@
       <c r="W356" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X356" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="357" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>192</v>
       </c>
@@ -28264,7 +28394,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>22</v>
       </c>
@@ -28338,7 +28468,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>33</v>
       </c>
@@ -28412,7 +28542,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>57</v>
       </c>
@@ -28483,7 +28613,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>42</v>
       </c>
@@ -28554,7 +28684,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>183</v>
       </c>
@@ -28628,7 +28758,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>186</v>
       </c>
@@ -28699,7 +28829,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>189</v>
       </c>
@@ -28769,8 +28899,11 @@
       <c r="W364" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X364" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="365" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>192</v>
       </c>
@@ -28844,7 +28977,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>22</v>
       </c>
@@ -28918,7 +29051,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>33</v>
       </c>
@@ -28992,7 +29125,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>57</v>
       </c>
@@ -29063,7 +29196,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>42</v>
       </c>
@@ -29134,7 +29267,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="370" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>186</v>
       </c>
@@ -29205,7 +29338,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="371" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>189</v>
       </c>
@@ -29275,8 +29408,11 @@
       <c r="W371" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="372" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X371" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="372" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>192</v>
       </c>
@@ -29350,7 +29486,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="373" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>57</v>
       </c>
@@ -29421,7 +29557,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="374" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>42</v>
       </c>
@@ -29492,7 +29628,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="375" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>183</v>
       </c>
@@ -29566,7 +29702,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="376" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>186</v>
       </c>
@@ -29637,7 +29773,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="377" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>189</v>
       </c>
@@ -29707,8 +29843,11 @@
       <c r="W377" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="378" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X377" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="378" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>192</v>
       </c>
@@ -29782,7 +29921,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="379" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>22</v>
       </c>
@@ -29856,7 +29995,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="380" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>33</v>
       </c>
@@ -29930,7 +30069,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="381" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>57</v>
       </c>
@@ -30001,7 +30140,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="382" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>42</v>
       </c>
@@ -30072,7 +30211,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="383" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>183</v>
       </c>
@@ -30146,7 +30285,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="384" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>186</v>
       </c>
@@ -30217,7 +30356,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="385" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>189</v>
       </c>
@@ -30287,8 +30426,11 @@
       <c r="W385" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="386" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X385" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="386" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>192</v>
       </c>
@@ -30362,7 +30504,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="387" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>22</v>
       </c>
@@ -30436,7 +30578,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="388" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>33</v>
       </c>
@@ -30510,7 +30652,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="389" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>57</v>
       </c>
@@ -30581,7 +30723,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="390" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>42</v>
       </c>
@@ -30652,7 +30794,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="391" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>42</v>
       </c>
@@ -30723,7 +30865,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="392" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>186</v>
       </c>
@@ -30794,7 +30936,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="393" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>189</v>
       </c>
@@ -30864,8 +31006,11 @@
       <c r="W393" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="394" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X393" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="394" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>192</v>
       </c>
@@ -30939,7 +31084,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="395" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>186</v>
       </c>
@@ -31010,7 +31155,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="396" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>189</v>
       </c>
@@ -31080,8 +31225,11 @@
       <c r="W396" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="397" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X396" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="397" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>192</v>
       </c>
@@ -31155,7 +31303,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="398" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>57</v>
       </c>
@@ -31226,7 +31374,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="399" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>42</v>
       </c>
@@ -31297,7 +31445,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="400" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>189</v>
       </c>
@@ -31367,8 +31515,11 @@
       <c r="W400" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="401" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X400" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="401" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>192</v>
       </c>
@@ -31442,7 +31593,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="402" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>22</v>
       </c>
@@ -31516,7 +31667,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="403" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>33</v>
       </c>
@@ -31590,7 +31741,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="404" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>57</v>
       </c>
@@ -31661,7 +31812,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="405" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>42</v>
       </c>
@@ -31732,7 +31883,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="406" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>42</v>
       </c>
@@ -31803,7 +31954,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="407" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>186</v>
       </c>
@@ -31874,7 +32025,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="408" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>189</v>
       </c>
@@ -31944,8 +32095,11 @@
       <c r="W408" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="409" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X408" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="409" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>192</v>
       </c>
@@ -32019,7 +32173,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="410" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>42</v>
       </c>
@@ -32090,7 +32244,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="411" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>186</v>
       </c>
@@ -32161,7 +32315,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="412" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>189</v>
       </c>
@@ -32231,8 +32385,11 @@
       <c r="W412" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="413" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X412" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="413" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>192</v>
       </c>
@@ -32306,7 +32463,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="414" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>189</v>
       </c>
@@ -32376,8 +32533,11 @@
       <c r="W414" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="415" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X414" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="415" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>192</v>
       </c>
@@ -32451,7 +32611,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="416" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>186</v>
       </c>
@@ -32522,7 +32682,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="417" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>186</v>
       </c>
@@ -32593,7 +32753,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="418" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>22</v>
       </c>
@@ -32667,7 +32827,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="419" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>22</v>
       </c>
@@ -32741,7 +32901,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="420" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>33</v>
       </c>
@@ -32815,7 +32975,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="421" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>57</v>
       </c>
@@ -32886,7 +33046,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="422" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>57</v>
       </c>
@@ -32957,7 +33117,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="423" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>22</v>
       </c>
@@ -33031,7 +33191,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="424" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>33</v>
       </c>
@@ -33105,7 +33265,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="425" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>42</v>
       </c>
@@ -33176,7 +33336,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="426" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>22</v>
       </c>
@@ -33250,7 +33410,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="427" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>33</v>
       </c>
@@ -33324,7 +33484,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="428" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>57</v>
       </c>
@@ -33395,7 +33555,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="429" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>22</v>
       </c>
@@ -33469,7 +33629,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="430" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>33</v>
       </c>
@@ -33543,7 +33703,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="431" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>22</v>
       </c>
@@ -33617,7 +33777,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="432" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>42</v>
       </c>
@@ -33688,7 +33848,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="433" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>183</v>
       </c>
@@ -33762,8 +33922,24 @@
         <v>399</v>
       </c>
     </row>
+    <row r="434" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X434" t="s">
+        <v>499</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:W433" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:W434" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Cow"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="21">
+      <filters>
+        <filter val="Bovine Influenza"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
